--- a/figs/tables_mowtivation.xlsx
+++ b/figs/tables_mowtivation.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/Mowtivation/figs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{063597CA-84F9-5E49-A9FC-0E68E86E367B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1AD617-28B9-5647-BF67-1F2C436744B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19080" yWindow="-28300" windowWidth="34160" windowHeight="21100" xr2:uid="{CFC9959B-CCF0-1E42-95AC-6A81378BC995}"/>
   </bookViews>
   <sheets>
-    <sheet name="Anova table" sheetId="1" r:id="rId1"/>
-    <sheet name="Equivalence table" sheetId="2" r:id="rId2"/>
+    <sheet name="Global response summary" sheetId="1" r:id="rId1"/>
+    <sheet name="Yield equivalence table" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="58">
   <si>
     <t>Soybean biomass (kg/ha)</t>
   </si>
@@ -172,6 +172,45 @@
   </si>
   <si>
     <t>For soybean yield, an additive model with weed management and site-year as fixed effects was used because the interaction term did not significantly improve model fit (LRT, χ² = …, df = 8, p = 0.151).</t>
+  </si>
+  <si>
+    <t>Equivalence tests for soybean yield vs Tilled, cultivation (margin = ±468 kg/ha ≈ ±7 bu/ac).</t>
+  </si>
+  <si>
+    <t>Difference (kg ha⁻¹)</t>
+  </si>
+  <si>
+    <t>Contrast</t>
+  </si>
+  <si>
+    <t>Lower 90% CI</t>
+  </si>
+  <si>
+    <t>Upper 90% CI</t>
+  </si>
+  <si>
+    <t>p (equiv.)</t>
+  </si>
+  <si>
+    <t>Rolled, no control - Tilled, cultivation</t>
+  </si>
+  <si>
+    <t>Rolled, mowing - Tilled, cultivation</t>
+  </si>
+  <si>
+    <t>Tilled, mowing - Tilled, cultivation</t>
+  </si>
+  <si>
+    <t>Difference (bu ac⁻¹ )</t>
+  </si>
+  <si>
+    <t>Rolled, high-residue cultivation - Tilled, cultivation</t>
+  </si>
+  <si>
+    <t>We used a two one-sided test (TOST) equivalence framework on the mixed-model emmeans, testing each treatment against Tilled, cultivation with a ±10% yield margin (±468 kg ha⁻¹ ≈ ±7 bu ac⁻¹). Rolled, mowing and Rolled, high-residue cultivation both met the equivalence criterion (p_equiv &lt; 0.05), indicating their yields are statistically indistinguishable from Tilled, cultivation within this practical margin. Rolled, no control had similar numerical yields but narrowly failed the equivalence test, while Tilled, mowing did not meet the equivalence criterion and tended to yield less than Tilled, cultivation.</t>
+  </si>
+  <si>
+    <t>Summary of weed biomass and soybean performance (model-predicted means, raw means, and CLDs) across locations, treatments, and their interaction.</t>
   </si>
 </sst>
 </file>
@@ -182,7 +221,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -229,6 +268,33 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -238,7 +304,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -389,11 +455,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -556,7 +637,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -564,6 +654,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -898,11 +996,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522EE051-3ED8-7344-9F49-AE7ECF2C02F1}">
-  <dimension ref="A2:Y55"/>
+  <dimension ref="A1:Y55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="Q40" sqref="Q40"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -923,6 +1021,12 @@
     <col min="23" max="23" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:25" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" s="80" t="s">
+        <v>57</v>
+      </c>
+      <c r="L1" s="69"/>
+    </row>
     <row r="2" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="53" t="s">
@@ -990,7 +1094,7 @@
         <v>31</v>
       </c>
       <c r="S3" s="57"/>
-      <c r="T3" s="69" t="s">
+      <c r="T3" s="70" t="s">
         <v>43</v>
       </c>
       <c r="U3" s="68"/>
@@ -2921,39 +3025,39 @@
       <c r="W40" s="33"/>
     </row>
     <row r="41" spans="1:24" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="T41" s="71" t="s">
+      <c r="T41" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="U41" s="71"/>
+      <c r="U41" s="74"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="T42" s="70"/>
-      <c r="U42" s="70"/>
+      <c r="T42" s="73"/>
+      <c r="U42" s="73"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="T43" s="70"/>
-      <c r="U43" s="70"/>
+      <c r="T43" s="73"/>
+      <c r="U43" s="73"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
         <v>26</v>
       </c>
-      <c r="T44" s="70"/>
-      <c r="U44" s="70"/>
+      <c r="T44" s="73"/>
+      <c r="U44" s="73"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
         <v>27</v>
       </c>
-      <c r="T45" s="70"/>
-      <c r="U45" s="70"/>
+      <c r="T45" s="73"/>
+      <c r="U45" s="73"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
         <v>28</v>
       </c>
-      <c r="T46" s="70"/>
-      <c r="U46" s="70"/>
+      <c r="T46" s="73"/>
+      <c r="U46" s="73"/>
     </row>
     <row r="47" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
@@ -2997,12 +3101,205 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7809865-2306-8F4F-A527-62E779202E03}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="54.83203125" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="23" x14ac:dyDescent="0.25">
+      <c r="A1" s="75" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+    </row>
+    <row r="4" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="77" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="77" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="77" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="77" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="77" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+    </row>
+    <row r="5" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="79">
+        <v>-209.9</v>
+      </c>
+      <c r="C5" s="79">
+        <v>-518.5</v>
+      </c>
+      <c r="D5" s="79">
+        <v>98.6</v>
+      </c>
+      <c r="E5" s="79">
+        <v>-3.1</v>
+      </c>
+      <c r="F5" s="79">
+        <v>-7.7</v>
+      </c>
+      <c r="G5" s="79">
+        <v>1.5</v>
+      </c>
+      <c r="H5" s="79">
+        <v>8.3400000000000002E-2</v>
+      </c>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+    </row>
+    <row r="6" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="A6" s="78" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="79">
+        <v>-85.9</v>
+      </c>
+      <c r="C6" s="79">
+        <v>-394.5</v>
+      </c>
+      <c r="D6" s="79">
+        <v>222.6</v>
+      </c>
+      <c r="E6" s="79">
+        <v>-1.3</v>
+      </c>
+      <c r="F6" s="79">
+        <v>-5.9</v>
+      </c>
+      <c r="G6" s="79">
+        <v>3.3</v>
+      </c>
+      <c r="H6" s="79">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+    </row>
+    <row r="7" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="A7" s="78" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="79">
+        <v>-112</v>
+      </c>
+      <c r="C7" s="79">
+        <v>-420.6</v>
+      </c>
+      <c r="D7" s="79">
+        <v>196.5</v>
+      </c>
+      <c r="E7" s="79">
+        <v>-1.7</v>
+      </c>
+      <c r="F7" s="79">
+        <v>-6.3</v>
+      </c>
+      <c r="G7" s="79">
+        <v>2.9</v>
+      </c>
+      <c r="H7" s="79">
+        <v>2.9499999999999998E-2</v>
+      </c>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+    </row>
+    <row r="8" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="A8" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="79">
+        <v>-364.2</v>
+      </c>
+      <c r="C8" s="79">
+        <v>-672.7</v>
+      </c>
+      <c r="D8" s="79">
+        <v>-55.7</v>
+      </c>
+      <c r="E8" s="79">
+        <v>-5.4</v>
+      </c>
+      <c r="F8" s="79">
+        <v>-10</v>
+      </c>
+      <c r="G8" s="79">
+        <v>-0.8</v>
+      </c>
+      <c r="H8" s="79">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+    </row>
+    <row r="11" spans="1:11" ht="170" x14ac:dyDescent="0.2">
+      <c r="A11" s="71" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="71"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="71"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="71"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="71"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="72"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/figs/tables_mowtivation.xlsx
+++ b/figs/tables_mowtivation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/Mowtivation/figs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1AD617-28B9-5647-BF67-1F2C436744B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70779E6-39D5-D846-8973-E1685B78875C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="-28300" windowWidth="34160" windowHeight="21100" xr2:uid="{CFC9959B-CCF0-1E42-95AC-6A81378BC995}"/>
+    <workbookView xWindow="15240" yWindow="-26100" windowWidth="34160" windowHeight="21100" xr2:uid="{CFC9959B-CCF0-1E42-95AC-6A81378BC995}"/>
   </bookViews>
   <sheets>
     <sheet name="Global response summary" sheetId="1" r:id="rId1"/>
@@ -37,10 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="58">
-  <si>
-    <t>Soybean biomass (kg/ha)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="67">
   <si>
     <t>P-value</t>
   </si>
@@ -132,9 +129,6 @@
     <t xml:space="preserve">Linear regression between weeds (total, inter, and intra) and everything else. </t>
   </si>
   <si>
-    <t>Soybean population (plants/ha)</t>
-  </si>
-  <si>
     <t>Weeds</t>
   </si>
   <si>
@@ -147,9 +141,6 @@
     <t>&lt;0.05</t>
   </si>
   <si>
-    <t>Soybean 100 seed weight (g)</t>
-  </si>
-  <si>
     <t>try equivalence testing on soybean yield to make the case that there were not differences between treatments</t>
   </si>
   <si>
@@ -171,9 +162,6 @@
     <t>Soybean yield (kg ha⁻¹), model-predicted means (additive model)</t>
   </si>
   <si>
-    <t>For soybean yield, an additive model with weed management and site-year as fixed effects was used because the interaction term did not significantly improve model fit (LRT, χ² = …, df = 8, p = 0.151).</t>
-  </si>
-  <si>
     <t>Equivalence tests for soybean yield vs Tilled, cultivation (margin = ±468 kg/ha ≈ ±7 bu/ac).</t>
   </si>
   <si>
@@ -211,6 +199,45 @@
   </si>
   <si>
     <t>Summary of weed biomass and soybean performance (model-predicted means, raw means, and CLDs) across locations, treatments, and their interaction.</t>
+  </si>
+  <si>
+    <t>Soybean population (plants ha⁻¹), model-predicted means (additive model)</t>
+  </si>
+  <si>
+    <t>Soybean biomass (kg ha⁻¹), model-predicted means (additive model)</t>
+  </si>
+  <si>
+    <t>0.072*</t>
+  </si>
+  <si>
+    <t>0.053*</t>
+  </si>
+  <si>
+    <t>Soybean 100 -seed weight (g)</t>
+  </si>
+  <si>
+    <t>*An additive model with weed management and site-year as fixed effects was used because the interaction term did not significantly improve model fit (LRT, χ² = …, df = 8, p = 0.053).</t>
+  </si>
+  <si>
+    <t>0.151*</t>
+  </si>
+  <si>
+    <t>An additive model with weed management and site-year as fixed effects was used because the interaction term did not significantly improve model fit (LRT, χ² = …, df = 8, p = 0.151).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An additive model with weed management and site-year as fixed effects was used because the interaction term did not significantly improve model fit (LRT, χ² = …, df = 8, p = 0.150).	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An additive model with weed management and site-year as fixed effects was used because the interaction term did not significantly improve model fit (LRT, χ² = …, df = 8, p = 0.072).	</t>
+  </si>
+  <si>
+    <t>†For responses where the interaction was dropped, this p-value is from a likelihood-ratio test comparing additive vs interaction models; for responses where the interaction was retained, it is the Type-III p-value for the interaction term in the final model.</t>
+  </si>
+  <si>
+    <t>cd</t>
+  </si>
+  <si>
+    <t>d</t>
   </si>
 </sst>
 </file>
@@ -291,9 +318,8 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -474,7 +500,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -584,40 +610,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -630,29 +622,14 @@
     <xf numFmtId="1" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -661,7 +638,46 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -999,8 +1015,8 @@
   <dimension ref="A1:Y55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C16" sqref="C16"/>
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="W27" sqref="W27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1014,101 +1030,102 @@
     <col min="13" max="13" width="23.83203125" customWidth="1"/>
     <col min="15" max="15" width="15.33203125" customWidth="1"/>
     <col min="16" max="16" width="16" customWidth="1"/>
-    <col min="17" max="17" width="15.83203125" customWidth="1"/>
-    <col min="18" max="18" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="42.6640625" customWidth="1"/>
+    <col min="17" max="17" width="20.6640625" customWidth="1"/>
+    <col min="18" max="18" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="28.5" customWidth="1"/>
+    <col min="21" max="21" width="22.33203125" customWidth="1"/>
     <col min="22" max="22" width="11.5" customWidth="1"/>
     <col min="23" max="23" width="22.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="24" x14ac:dyDescent="0.3">
-      <c r="A1" s="80" t="s">
-        <v>57</v>
-      </c>
-      <c r="L1" s="69"/>
+    <row r="1" spans="1:25" ht="23" x14ac:dyDescent="0.25">
+      <c r="A1" s="73" t="s">
+        <v>53</v>
+      </c>
+      <c r="L1" s="55"/>
     </row>
     <row r="2" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="66" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="71" t="s">
+        <v>31</v>
+      </c>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+    </row>
+    <row r="3" spans="1:25" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="64" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="65"/>
+      <c r="D3" s="64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="65"/>
+      <c r="F3" s="69" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="70"/>
+      <c r="H3" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="70"/>
+      <c r="J3" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="70"/>
+      <c r="L3" s="69" t="s">
+        <v>23</v>
+      </c>
+      <c r="M3" s="70"/>
+      <c r="N3" s="69" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="55"/>
-      <c r="N2" s="58" t="s">
-        <v>33</v>
-      </c>
-      <c r="O2" s="59"/>
-      <c r="P2" s="59"/>
-      <c r="Q2" s="59"/>
-      <c r="R2" s="59"/>
-      <c r="S2" s="59"/>
-      <c r="T2" s="59"/>
-      <c r="U2" s="59"/>
-      <c r="V2" s="59"/>
-      <c r="W2" s="59"/>
-    </row>
-    <row r="3" spans="1:25" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="51" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="52"/>
-      <c r="D3" s="51" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="56" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="57"/>
-      <c r="J3" s="56" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="57"/>
-      <c r="L3" s="56" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="57"/>
-      <c r="N3" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="57"/>
-      <c r="P3" s="56" t="s">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="57"/>
-      <c r="R3" s="56" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" s="57"/>
-      <c r="T3" s="70" t="s">
-        <v>43</v>
-      </c>
-      <c r="U3" s="68"/>
-      <c r="V3" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="W3" s="57"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="70"/>
+      <c r="R3" s="64" t="s">
+        <v>54</v>
+      </c>
+      <c r="S3" s="65"/>
+      <c r="T3" s="75" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="76"/>
+      <c r="V3" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="W3" s="70"/>
     </row>
     <row r="4" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -1134,148 +1151,148 @@
     </row>
     <row r="5" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O5" s="39"/>
       <c r="P5" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q5" s="8"/>
       <c r="R5" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S5" s="8"/>
       <c r="T5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="U5" s="60"/>
+        <v>1</v>
+      </c>
+      <c r="U5" s="39"/>
       <c r="V5" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W5" s="10"/>
     </row>
     <row r="6" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="O6" s="34"/>
       <c r="P6" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="11"/>
       <c r="R6" s="9">
-        <v>0.70699999999999996</v>
+        <v>0.72</v>
       </c>
       <c r="S6" s="11"/>
       <c r="T6" s="9">
         <v>0.33200000000000002</v>
       </c>
-      <c r="U6" s="61"/>
+      <c r="U6" s="34"/>
       <c r="V6" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="W6" s="12"/>
     </row>
     <row r="7" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="11"/>
       <c r="H7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="34">
         <v>0.317</v>
       </c>
       <c r="O7" s="34"/>
-      <c r="P7" s="9">
-        <v>0.1671</v>
+      <c r="P7" s="9" t="s">
+        <v>56</v>
       </c>
       <c r="Q7" s="11"/>
       <c r="R7" s="9">
-        <v>0.30030000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="S7" s="11"/>
-      <c r="T7" s="9">
-        <v>0.151</v>
-      </c>
-      <c r="U7" s="61"/>
-      <c r="V7" s="9">
-        <v>0.14799999999999999</v>
+      <c r="T7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="U7" s="34"/>
+      <c r="V7" s="9" t="s">
+        <v>57</v>
       </c>
       <c r="W7" s="12"/>
     </row>
@@ -1299,14 +1316,14 @@
       <c r="Q8" s="15"/>
       <c r="R8" s="14"/>
       <c r="S8" s="15"/>
-      <c r="T8" s="63"/>
+      <c r="T8" s="51"/>
       <c r="U8" s="40"/>
       <c r="V8" s="14"/>
       <c r="W8" s="15"/>
     </row>
     <row r="9" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4"/>
       <c r="C9" s="5"/>
@@ -1326,222 +1343,222 @@
       <c r="Q9" s="5"/>
       <c r="R9" s="4"/>
       <c r="S9" s="5"/>
-      <c r="T9" s="64"/>
+      <c r="T9" s="52"/>
       <c r="U9" s="38"/>
       <c r="V9" s="4"/>
       <c r="W9" s="5"/>
     </row>
     <row r="10" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="18">
         <v>549</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" s="18">
         <v>636</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F10" s="18">
         <v>117</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H10" s="18">
         <v>269</v>
       </c>
       <c r="I10" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J10" s="18">
         <v>185</v>
       </c>
       <c r="K10" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L10" s="18">
         <v>366</v>
       </c>
       <c r="M10" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10" s="41">
         <v>537074</v>
       </c>
       <c r="O10" s="41" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P10" s="19">
         <v>5032</v>
       </c>
       <c r="Q10" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="R10" s="18">
-        <v>482284</v>
+        <v>4</v>
+      </c>
+      <c r="R10" s="20">
+        <v>482283.5</v>
       </c>
       <c r="S10" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T10" s="20">
         <v>3817</v>
       </c>
       <c r="U10" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V10" s="21">
         <v>17</v>
       </c>
       <c r="W10" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="18">
         <v>34</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="18">
         <v>76</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F11" s="18">
         <v>27</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H11" s="18">
         <v>59</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J11" s="37">
         <v>0</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L11" s="18">
         <v>16</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N11" s="41">
         <v>585958</v>
       </c>
       <c r="O11" s="41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P11" s="20">
         <v>8567</v>
       </c>
       <c r="Q11" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="R11" s="18">
-        <v>591535</v>
+        <v>3</v>
+      </c>
+      <c r="R11" s="20">
+        <v>591535.4</v>
       </c>
       <c r="S11" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T11" s="20">
         <v>4967</v>
       </c>
       <c r="U11" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V11" s="21">
         <v>18.2</v>
       </c>
       <c r="W11" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="18">
         <v>88</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" s="18">
         <v>163</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F12" s="18">
         <v>34</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H12" s="18">
         <v>121</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J12" s="18">
         <v>22</v>
       </c>
       <c r="K12" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L12" s="18">
         <v>42</v>
       </c>
       <c r="M12" s="17" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N12" s="41">
         <v>596129</v>
       </c>
       <c r="O12" s="41" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P12" s="20">
         <v>8369</v>
       </c>
       <c r="Q12" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="R12" s="18">
+        <v>3</v>
+      </c>
+      <c r="R12" s="20">
         <v>583333</v>
       </c>
       <c r="S12" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T12" s="20">
         <v>4793</v>
       </c>
       <c r="U12" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V12" s="21">
         <v>18.399999999999999</v>
       </c>
       <c r="W12" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="18" x14ac:dyDescent="0.2">
@@ -1571,7 +1588,7 @@
     </row>
     <row r="14" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="26"/>
@@ -1596,345 +1613,345 @@
       <c r="V14" s="27"/>
       <c r="W14" s="26"/>
       <c r="Y14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B15" s="18">
         <v>187</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D15" s="18">
         <v>264</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F15" s="18">
         <v>192</v>
       </c>
       <c r="G15" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H15" s="18">
         <v>247</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15" s="37">
         <v>0</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L15" s="18">
         <v>17</v>
       </c>
       <c r="M15" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N15" s="44">
         <v>540792</v>
       </c>
       <c r="O15" s="44" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P15" s="20">
         <v>7024</v>
       </c>
       <c r="Q15" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="R15" s="18">
-        <v>544073</v>
+        <v>4</v>
+      </c>
+      <c r="R15" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="S15" s="28"/>
-      <c r="T15" s="20">
-        <v>4470</v>
+      <c r="T15" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="U15" s="28"/>
-      <c r="V15" s="21">
-        <v>17.399999999999999</v>
+      <c r="V15" s="18">
+        <v>17.440000000000001</v>
       </c>
       <c r="W15" s="28" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="Y15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B16" s="18">
         <v>73</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16" s="18">
         <v>123</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F16" s="18">
         <v>40</v>
       </c>
       <c r="G16" s="28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H16" s="18">
         <v>60</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J16" s="18">
         <v>8</v>
       </c>
       <c r="K16" s="28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L16" s="18">
         <v>64</v>
       </c>
       <c r="M16" s="28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N16" s="44">
         <v>563211</v>
       </c>
       <c r="O16" s="44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P16" s="20">
         <v>6736</v>
       </c>
       <c r="Q16" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="R16" s="18">
-        <v>544073</v>
+        <v>4</v>
+      </c>
+      <c r="R16" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="S16" s="28"/>
-      <c r="T16" s="20">
-        <v>4594</v>
+      <c r="T16" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="U16" s="28"/>
-      <c r="V16" s="21">
-        <v>17.7</v>
+      <c r="V16" s="18">
+        <v>17.649999999999999</v>
       </c>
       <c r="W16" s="28" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="18">
         <v>60</v>
       </c>
       <c r="C17" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="18">
         <v>246</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F17" s="18">
         <v>45</v>
       </c>
       <c r="G17" s="28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H17" s="18">
         <v>170</v>
       </c>
       <c r="I17" s="28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J17" s="18">
         <v>11</v>
       </c>
       <c r="K17" s="28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L17" s="18">
         <v>76</v>
       </c>
       <c r="M17" s="28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N17" s="44">
         <v>557196</v>
       </c>
       <c r="O17" s="44" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P17" s="20">
         <v>7027</v>
       </c>
       <c r="Q17" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="R17" s="18">
-        <v>556102</v>
+        <v>4</v>
+      </c>
+      <c r="R17" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="S17" s="28"/>
-      <c r="T17" s="20">
-        <v>4568</v>
+      <c r="T17" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="U17" s="17"/>
-      <c r="V17" s="21">
-        <v>18</v>
+      <c r="V17" s="18">
+        <v>17.95</v>
       </c>
       <c r="W17" s="17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B18" s="18">
         <v>332</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" s="18">
         <v>504</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" s="18">
         <v>212</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H18" s="18">
         <v>261</v>
       </c>
       <c r="I18" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J18" s="18">
         <v>80</v>
       </c>
       <c r="K18" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L18" s="18">
         <v>243</v>
       </c>
       <c r="M18" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N18" s="44">
         <v>602034</v>
       </c>
       <c r="O18" s="44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P18" s="20">
         <v>7807</v>
       </c>
       <c r="Q18" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="R18" s="18">
-        <v>547354</v>
+        <v>3</v>
+      </c>
+      <c r="R18" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="S18" s="28"/>
-      <c r="T18" s="20">
-        <v>4316</v>
+      <c r="T18" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="U18" s="17"/>
-      <c r="V18" s="21">
-        <v>18</v>
+      <c r="V18" s="18">
+        <v>18.04</v>
       </c>
       <c r="W18" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B19" s="18">
         <v>86</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" s="18">
         <v>320</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>3</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H19" s="18">
         <v>12</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J19" s="18">
         <v>75</v>
       </c>
       <c r="K19" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L19" s="18">
         <v>308</v>
       </c>
       <c r="M19" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N19" s="44">
         <v>602034</v>
       </c>
       <c r="O19" s="44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="P19" s="20">
         <v>8020</v>
       </c>
       <c r="Q19" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="R19" s="18">
-        <v>570319</v>
+        <v>3</v>
+      </c>
+      <c r="R19" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="S19" s="28"/>
-      <c r="T19" s="20">
-        <v>4680</v>
+      <c r="T19" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="U19" s="17"/>
-      <c r="V19" s="21">
-        <v>18.399999999999999</v>
+      <c r="V19" s="18">
+        <v>18.350000000000001</v>
       </c>
       <c r="W19" s="17" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="18" x14ac:dyDescent="0.2">
@@ -1957,14 +1974,16 @@
       <c r="Q20" s="23"/>
       <c r="R20" s="22"/>
       <c r="S20" s="23"/>
-      <c r="T20" s="65"/>
+      <c r="T20" s="53" t="s">
+        <v>39</v>
+      </c>
       <c r="U20" s="42"/>
       <c r="V20" s="24"/>
       <c r="W20" s="23"/>
     </row>
     <row r="21" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21" s="25"/>
       <c r="C21" s="26"/>
@@ -1984,14 +2003,14 @@
       <c r="Q21" s="26"/>
       <c r="R21" s="25"/>
       <c r="S21" s="26"/>
-      <c r="T21" s="66"/>
+      <c r="T21" s="54"/>
       <c r="U21" s="43"/>
       <c r="V21" s="27"/>
       <c r="W21" s="26"/>
     </row>
     <row r="22" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A22" s="29" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="30"/>
       <c r="C22" s="28"/>
@@ -2011,324 +2030,324 @@
       <c r="Q22" s="28"/>
       <c r="R22" s="30"/>
       <c r="S22" s="28"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="62"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="44"/>
       <c r="V22" s="20"/>
       <c r="W22" s="28"/>
     </row>
     <row r="23" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B23" s="18">
         <v>405</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" s="18">
         <v>420</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F23" s="18">
         <v>357</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H23" s="18">
         <v>395</v>
       </c>
       <c r="I23" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J23" s="18">
         <v>23</v>
       </c>
       <c r="K23" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="L23" s="18">
         <v>24</v>
       </c>
       <c r="M23" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N23" s="44">
         <v>506890</v>
       </c>
       <c r="O23" s="44"/>
-      <c r="P23" s="19">
-        <v>4732</v>
+      <c r="P23" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="Q23" s="16"/>
-      <c r="R23" s="18">
-        <v>446194</v>
+      <c r="R23" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="S23" s="28"/>
-      <c r="T23" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="U23" s="62"/>
-      <c r="V23" s="21">
-        <v>16.399999999999999</v>
+      <c r="T23" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="U23" s="44"/>
+      <c r="V23" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="W23" s="46"/>
       <c r="X23" s="20"/>
     </row>
     <row r="24" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B24" s="18">
         <v>255</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" s="18">
         <v>258</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F24" s="18">
         <v>132</v>
       </c>
       <c r="G24" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H24" s="18">
         <v>132</v>
       </c>
       <c r="I24" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J24" s="18">
         <v>114</v>
       </c>
       <c r="K24" s="28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L24" s="18">
         <v>126</v>
       </c>
       <c r="M24" s="28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N24" s="44">
         <v>498688</v>
       </c>
       <c r="O24" s="44"/>
-      <c r="P24" s="19">
-        <v>4552</v>
+      <c r="P24" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="Q24" s="16"/>
-      <c r="R24" s="18">
-        <v>470800</v>
+      <c r="R24" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="S24" s="28"/>
-      <c r="T24" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="U24" s="62"/>
-      <c r="V24" s="21">
-        <v>16.8</v>
+      <c r="T24" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="U24" s="44"/>
+      <c r="V24" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="W24" s="46"/>
       <c r="X24" s="20"/>
     </row>
     <row r="25" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="18">
         <v>472</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" s="18">
         <v>463</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F25" s="18">
         <v>286</v>
       </c>
       <c r="G25" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H25" s="18">
         <v>293</v>
       </c>
       <c r="I25" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J25" s="18">
         <v>155</v>
       </c>
       <c r="K25" s="28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L25" s="18">
         <v>170</v>
       </c>
       <c r="M25" s="28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N25" s="44">
         <v>516732</v>
       </c>
       <c r="O25" s="44"/>
-      <c r="P25" s="19">
-        <v>5168</v>
+      <c r="P25" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="Q25" s="16"/>
-      <c r="R25" s="18">
-        <v>460958</v>
+      <c r="R25" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="S25" s="28"/>
-      <c r="T25" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="U25" s="62"/>
-      <c r="V25" s="21">
-        <v>17.5</v>
+      <c r="T25" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="U25" s="44"/>
+      <c r="V25" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="W25" s="46"/>
       <c r="X25" s="20"/>
     </row>
     <row r="26" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B26" s="18">
         <v>1200</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="18">
         <v>1184</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" s="18">
         <v>503</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H26" s="18">
         <v>522</v>
       </c>
       <c r="I26" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J26" s="18">
         <v>633</v>
       </c>
       <c r="K26" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L26" s="18">
         <v>662</v>
       </c>
       <c r="M26" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N26" s="44">
         <v>572507</v>
       </c>
       <c r="O26" s="44"/>
-      <c r="P26" s="19">
-        <v>5073</v>
+      <c r="P26" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="Q26" s="16"/>
-      <c r="R26" s="18">
-        <v>508530</v>
+      <c r="R26" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="S26" s="28"/>
-      <c r="T26" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="U26" s="62"/>
-      <c r="V26" s="21">
-        <v>17.2</v>
+      <c r="T26" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="U26" s="44"/>
+      <c r="V26" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="W26" s="46"/>
       <c r="X26" s="20"/>
     </row>
     <row r="27" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B27" s="18">
         <v>855</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D27" s="18">
         <v>854</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F27" s="18">
         <v>3</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H27" s="18">
         <v>4</v>
       </c>
       <c r="I27" s="28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J27" s="18">
         <v>829</v>
       </c>
       <c r="K27" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L27" s="18">
         <v>850</v>
       </c>
       <c r="M27" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N27" s="44">
         <v>590551</v>
       </c>
       <c r="O27" s="44"/>
-      <c r="P27" s="19">
-        <v>5637</v>
+      <c r="P27" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="Q27" s="16"/>
-      <c r="R27" s="18">
-        <v>524934</v>
+      <c r="R27" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="S27" s="28"/>
-      <c r="T27" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="U27" s="62"/>
-      <c r="V27" s="21">
-        <v>17.3</v>
+      <c r="T27" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="U27" s="44"/>
+      <c r="V27" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="W27" s="46"/>
       <c r="X27" s="20"/>
     </row>
     <row r="28" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="29" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B28" s="18"/>
       <c r="C28" s="28"/>
@@ -2348,69 +2367,69 @@
       <c r="Q28" s="16"/>
       <c r="R28" s="18"/>
       <c r="S28" s="28"/>
-      <c r="T28" s="67"/>
-      <c r="U28" s="62"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="44"/>
       <c r="V28" s="20"/>
       <c r="W28" s="46"/>
       <c r="X28" s="20"/>
     </row>
     <row r="29" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B29" s="18">
         <v>94</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D29" s="18">
         <v>125</v>
       </c>
       <c r="E29" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F29" s="18">
         <v>105</v>
       </c>
       <c r="G29" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H29" s="18">
         <v>125</v>
       </c>
       <c r="I29" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J29" s="37">
         <v>0</v>
       </c>
       <c r="K29" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L29" s="18">
         <v>0</v>
       </c>
       <c r="M29" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N29" s="44">
         <v>561024</v>
       </c>
       <c r="O29" s="44"/>
-      <c r="P29" s="20">
-        <v>8365</v>
+      <c r="P29" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="Q29" s="16"/>
-      <c r="R29" s="18">
-        <v>587270</v>
+      <c r="R29" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="S29" s="28"/>
-      <c r="T29" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="V29" s="47">
-        <v>17.7</v>
+      <c r="T29" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="V29" s="47" t="s">
+        <v>39</v>
       </c>
       <c r="W29" s="49"/>
       <c r="X29" s="34"/>
@@ -2418,122 +2437,122 @@
     </row>
     <row r="30" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B30" s="18">
         <v>24</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D30" s="18">
         <v>24</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F30" s="18">
         <v>24</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H30" s="18">
         <v>24</v>
       </c>
       <c r="I30" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J30" s="18">
         <v>0.13600000000000001</v>
       </c>
       <c r="K30" s="28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L30" s="18">
         <v>0.125</v>
       </c>
       <c r="M30" s="28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N30" s="44">
         <v>585630</v>
       </c>
       <c r="O30" s="44"/>
-      <c r="P30" s="20">
-        <v>8061</v>
+      <c r="P30" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="Q30" s="16"/>
-      <c r="R30" s="18">
-        <v>597113</v>
+      <c r="R30" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="S30" s="28"/>
-      <c r="T30" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="V30" s="47">
-        <v>17.899999999999999</v>
+      <c r="T30" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="V30" s="47" t="s">
+        <v>39</v>
       </c>
       <c r="W30" s="49"/>
       <c r="X30" s="34"/>
     </row>
     <row r="31" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31" s="18">
         <v>2</v>
       </c>
       <c r="C31" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D31" s="18">
         <v>2</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F31" s="18">
         <v>2</v>
       </c>
       <c r="G31" s="28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H31" s="18">
         <v>2</v>
       </c>
       <c r="I31" s="28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J31" s="18">
         <v>0.35299999999999998</v>
       </c>
       <c r="K31" s="28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L31" s="18">
         <v>0.55000000000000004</v>
       </c>
       <c r="M31" s="28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N31" s="44">
         <v>554462</v>
       </c>
       <c r="O31" s="44"/>
-      <c r="P31" s="20">
-        <v>8445</v>
+      <c r="P31" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="Q31" s="16"/>
-      <c r="R31" s="18">
-        <v>631562</v>
+      <c r="R31" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="S31" s="28"/>
-      <c r="T31" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="V31" s="47">
-        <v>18.100000000000001</v>
+      <c r="T31" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="V31" s="47" t="s">
+        <v>39</v>
       </c>
       <c r="W31" s="49"/>
       <c r="X31" s="34"/>
@@ -2541,129 +2560,129 @@
     </row>
     <row r="32" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B32" s="18">
         <v>142</v>
       </c>
       <c r="C32" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" s="18">
         <v>133</v>
       </c>
       <c r="E32" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F32" s="18">
         <v>120</v>
       </c>
       <c r="G32" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H32" s="18">
         <v>116</v>
       </c>
       <c r="I32" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J32" s="18">
         <v>18</v>
       </c>
       <c r="K32" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L32" s="18">
         <v>17</v>
       </c>
       <c r="M32" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N32" s="44">
         <v>588911</v>
       </c>
       <c r="O32" s="44"/>
-      <c r="P32" s="20">
-        <v>9262</v>
+      <c r="P32" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="Q32" s="16"/>
-      <c r="R32" s="18">
-        <v>562664</v>
+      <c r="R32" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="S32" s="28"/>
-      <c r="T32" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="V32" s="47">
-        <v>18.600000000000001</v>
+      <c r="T32" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="V32" s="47" t="s">
+        <v>39</v>
       </c>
       <c r="W32" s="49"/>
       <c r="X32" s="34"/>
     </row>
     <row r="33" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B33" s="18">
         <v>71</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D33" s="18">
         <v>94</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F33" s="18">
         <v>25</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H33" s="18">
         <v>30</v>
       </c>
       <c r="I33" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J33" s="18">
         <v>43.002000000000002</v>
       </c>
       <c r="K33" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L33" s="18">
         <v>63</v>
       </c>
       <c r="M33" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N33" s="44">
         <v>639764</v>
       </c>
       <c r="O33" s="44"/>
-      <c r="P33" s="20">
-        <v>9545</v>
+      <c r="P33" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="Q33" s="16"/>
-      <c r="R33" s="18">
-        <v>579068</v>
+      <c r="R33" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="S33" s="28"/>
-      <c r="T33" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="V33" s="47">
-        <v>18.7</v>
+      <c r="T33" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="V33" s="47" t="s">
+        <v>39</v>
       </c>
       <c r="W33" s="49"/>
       <c r="X33" s="34"/>
     </row>
     <row r="34" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A34" s="29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B34" s="18"/>
       <c r="C34" s="28"/>
@@ -2683,318 +2702,318 @@
       <c r="Q34" s="16"/>
       <c r="R34" s="18"/>
       <c r="S34" s="28"/>
-      <c r="T34" s="67"/>
-      <c r="U34" s="62"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="44"/>
       <c r="V34" s="20"/>
       <c r="W34" s="49"/>
       <c r="X34" s="48"/>
     </row>
     <row r="35" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B35" s="18">
         <v>172</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" s="18">
         <v>247</v>
       </c>
       <c r="E35" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F35" s="18">
         <v>187</v>
       </c>
       <c r="G35" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H35" s="18">
         <v>221</v>
       </c>
       <c r="I35" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J35" s="18">
         <v>12</v>
       </c>
       <c r="K35" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L35" s="18">
         <v>26</v>
       </c>
       <c r="M35" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N35" s="44">
         <v>554462</v>
       </c>
       <c r="O35" s="44"/>
-      <c r="P35" s="20">
-        <v>7976</v>
+      <c r="P35" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="Q35" s="16"/>
-      <c r="R35" s="18">
-        <v>598753</v>
+      <c r="R35" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="S35" s="28"/>
-      <c r="T35" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="U35" s="62"/>
-      <c r="V35" s="21">
-        <v>17.7</v>
+      <c r="T35" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="U35" s="44"/>
+      <c r="V35" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="W35" s="49"/>
       <c r="X35" s="48"/>
     </row>
     <row r="36" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B36" s="18">
         <v>63</v>
       </c>
       <c r="C36" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D36" s="18">
         <v>88</v>
       </c>
       <c r="E36" s="28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F36" s="18">
         <v>20</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H36" s="18">
         <v>23</v>
       </c>
       <c r="I36" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J36" s="18">
         <v>31</v>
       </c>
       <c r="K36" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L36" s="18">
         <v>65</v>
       </c>
       <c r="M36" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N36" s="44">
         <v>605315</v>
       </c>
       <c r="O36" s="44"/>
-      <c r="P36" s="20">
-        <v>7594</v>
+      <c r="P36" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="Q36" s="16"/>
-      <c r="R36" s="18">
-        <v>564304</v>
+      <c r="R36" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="S36" s="28"/>
-      <c r="T36" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="U36" s="62"/>
-      <c r="V36" s="21">
-        <v>18.3</v>
+      <c r="T36" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="U36" s="44"/>
+      <c r="V36" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="W36" s="46"/>
       <c r="X36" s="20"/>
     </row>
     <row r="37" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B37" s="18">
         <v>216</v>
       </c>
       <c r="C37" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" s="18">
         <v>272</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F37" s="18">
         <v>186</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H37" s="18">
         <v>215</v>
       </c>
       <c r="I37" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J37" s="18">
         <v>28</v>
       </c>
       <c r="K37" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L37" s="18">
         <v>58</v>
       </c>
       <c r="M37" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N37" s="44">
         <v>600394</v>
       </c>
       <c r="O37" s="44"/>
-      <c r="P37" s="20">
-        <v>7469</v>
+      <c r="P37" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="Q37" s="16"/>
-      <c r="R37" s="18">
-        <v>575787</v>
+      <c r="R37" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="S37" s="28"/>
-      <c r="T37" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="U37" s="62"/>
-      <c r="V37" s="21">
-        <v>18.3</v>
+      <c r="T37" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="U37" s="44"/>
+      <c r="V37" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="W37" s="46"/>
       <c r="X37" s="20"/>
     </row>
     <row r="38" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B38" s="18">
         <v>214</v>
       </c>
       <c r="C38" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" s="18">
         <v>195</v>
       </c>
       <c r="E38" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F38" s="18">
         <v>157</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H38" s="18">
         <v>246</v>
       </c>
       <c r="I38" s="28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J38" s="18">
         <v>44</v>
       </c>
       <c r="K38" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L38" s="18">
         <v>49</v>
       </c>
       <c r="M38" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N38" s="44">
         <v>626640</v>
       </c>
       <c r="O38" s="44"/>
-      <c r="P38" s="20">
-        <v>9262</v>
+      <c r="P38" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="Q38" s="16"/>
-      <c r="R38" s="18">
-        <v>570866</v>
+      <c r="R38" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="S38" s="28"/>
-      <c r="T38" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="U38" s="62"/>
-      <c r="V38" s="21">
-        <v>18.3</v>
+      <c r="T38" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="U38" s="44"/>
+      <c r="V38" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="W38" s="46"/>
       <c r="X38" s="20"/>
     </row>
     <row r="39" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B39" s="18">
         <v>11</v>
       </c>
       <c r="C39" s="28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" s="18">
         <v>12</v>
       </c>
       <c r="E39" s="28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F39" s="18">
         <v>0.42399999999999999</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H39" s="18">
         <v>0.45</v>
       </c>
       <c r="I39" s="28" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J39" s="18">
         <v>12</v>
       </c>
       <c r="K39" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L39" s="18">
         <v>12</v>
       </c>
       <c r="M39" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N39" s="44">
         <v>593832</v>
       </c>
       <c r="O39" s="44"/>
-      <c r="P39" s="20">
-        <v>9545</v>
+      <c r="P39" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="Q39" s="16"/>
-      <c r="R39" s="18">
-        <v>606955</v>
+      <c r="R39" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="S39" s="28"/>
-      <c r="T39" s="67" t="s">
-        <v>42</v>
-      </c>
-      <c r="U39" s="62"/>
-      <c r="V39" s="21">
-        <v>19.100000000000001</v>
+      <c r="T39" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="U39" s="44"/>
+      <c r="V39" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="W39" s="46"/>
       <c r="X39" s="20"/>
@@ -3025,43 +3044,58 @@
       <c r="W40" s="33"/>
     </row>
     <row r="41" spans="1:24" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="T41" s="74" t="s">
-        <v>44</v>
-      </c>
-      <c r="U41" s="74"/>
+      <c r="P41" s="63" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q41" s="63"/>
+      <c r="R41" s="63" t="s">
+        <v>62</v>
+      </c>
+      <c r="S41" s="63"/>
+      <c r="T41" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="U41" s="63"/>
+      <c r="V41" s="74" t="s">
+        <v>59</v>
+      </c>
+      <c r="W41" s="74"/>
     </row>
     <row r="42" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="T42" s="73"/>
-      <c r="U42" s="73"/>
+      <c r="T42" s="57"/>
+      <c r="U42" s="57"/>
+      <c r="V42" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="T43" s="73"/>
-      <c r="U43" s="73"/>
+      <c r="T43" s="57"/>
+      <c r="U43" s="57"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>26</v>
-      </c>
-      <c r="T44" s="73"/>
-      <c r="U44" s="73"/>
+        <v>25</v>
+      </c>
+      <c r="T44" s="57"/>
+      <c r="U44" s="57"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>27</v>
-      </c>
-      <c r="T45" s="73"/>
-      <c r="U45" s="73"/>
+        <v>26</v>
+      </c>
+      <c r="T45" s="57"/>
+      <c r="U45" s="57"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>28</v>
-      </c>
-      <c r="T46" s="73"/>
-      <c r="U46" s="73"/>
+        <v>27</v>
+      </c>
+      <c r="T46" s="57"/>
+      <c r="U46" s="57"/>
     </row>
     <row r="47" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H47" s="20"/>
     </row>
@@ -3080,7 +3114,8 @@
       <c r="H55" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="17">
+    <mergeCell ref="V41:W41"/>
     <mergeCell ref="T41:U41"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="B2:M2"/>
@@ -3094,6 +3129,9 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="V3:W3"/>
+    <mergeCell ref="P41:Q41"/>
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="T3:U3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3120,184 +3158,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="58" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+    </row>
+    <row r="4" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="60" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-    </row>
-    <row r="4" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="77" t="s">
+      <c r="E4" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="F4" s="60" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+    </row>
+    <row r="5" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="77" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="77" t="s">
+      <c r="B5" s="62">
+        <v>-209.9</v>
+      </c>
+      <c r="C5" s="62">
+        <v>-518.5</v>
+      </c>
+      <c r="D5" s="62">
+        <v>98.6</v>
+      </c>
+      <c r="E5" s="62">
+        <v>-3.1</v>
+      </c>
+      <c r="F5" s="62">
+        <v>-7.7</v>
+      </c>
+      <c r="G5" s="62">
+        <v>1.5</v>
+      </c>
+      <c r="H5" s="62">
+        <v>8.3400000000000002E-2</v>
+      </c>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="59"/>
+    </row>
+    <row r="6" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="A6" s="61" t="s">
         <v>48</v>
       </c>
-      <c r="D4" s="77" t="s">
+      <c r="B6" s="62">
+        <v>-85.9</v>
+      </c>
+      <c r="C6" s="62">
+        <v>-394.5</v>
+      </c>
+      <c r="D6" s="62">
+        <v>222.6</v>
+      </c>
+      <c r="E6" s="62">
+        <v>-1.3</v>
+      </c>
+      <c r="F6" s="62">
+        <v>-5.9</v>
+      </c>
+      <c r="G6" s="62">
+        <v>3.3</v>
+      </c>
+      <c r="H6" s="62">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="59"/>
+    </row>
+    <row r="7" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="A7" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7" s="62">
+        <v>-112</v>
+      </c>
+      <c r="C7" s="62">
+        <v>-420.6</v>
+      </c>
+      <c r="D7" s="62">
+        <v>196.5</v>
+      </c>
+      <c r="E7" s="62">
+        <v>-1.7</v>
+      </c>
+      <c r="F7" s="62">
+        <v>-6.3</v>
+      </c>
+      <c r="G7" s="62">
+        <v>2.9</v>
+      </c>
+      <c r="H7" s="62">
+        <v>2.9499999999999998E-2</v>
+      </c>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
+      <c r="K7" s="59"/>
+    </row>
+    <row r="8" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="A8" s="61" t="s">
         <v>49</v>
       </c>
-      <c r="E4" s="77" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="77" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" s="77" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="77" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-    </row>
-    <row r="5" spans="1:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="B5" s="79">
-        <v>-209.9</v>
-      </c>
-      <c r="C5" s="79">
-        <v>-518.5</v>
-      </c>
-      <c r="D5" s="79">
-        <v>98.6</v>
-      </c>
-      <c r="E5" s="79">
-        <v>-3.1</v>
-      </c>
-      <c r="F5" s="79">
-        <v>-7.7</v>
-      </c>
-      <c r="G5" s="79">
-        <v>1.5</v>
-      </c>
-      <c r="H5" s="79">
-        <v>8.3400000000000002E-2</v>
-      </c>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-    </row>
-    <row r="6" spans="1:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="78" t="s">
+      <c r="B8" s="62">
+        <v>-364.2</v>
+      </c>
+      <c r="C8" s="62">
+        <v>-672.7</v>
+      </c>
+      <c r="D8" s="62">
+        <v>-55.7</v>
+      </c>
+      <c r="E8" s="62">
+        <v>-5.4</v>
+      </c>
+      <c r="F8" s="62">
+        <v>-10</v>
+      </c>
+      <c r="G8" s="62">
+        <v>-0.8</v>
+      </c>
+      <c r="H8" s="62">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
+      <c r="K8" s="59"/>
+    </row>
+    <row r="11" spans="1:11" ht="170" x14ac:dyDescent="0.2">
+      <c r="A11" s="56" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="79">
-        <v>-85.9</v>
-      </c>
-      <c r="C6" s="79">
-        <v>-394.5</v>
-      </c>
-      <c r="D6" s="79">
-        <v>222.6</v>
-      </c>
-      <c r="E6" s="79">
-        <v>-1.3</v>
-      </c>
-      <c r="F6" s="79">
-        <v>-5.9</v>
-      </c>
-      <c r="G6" s="79">
-        <v>3.3</v>
-      </c>
-      <c r="H6" s="79">
-        <v>2.1700000000000001E-2</v>
-      </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-    </row>
-    <row r="7" spans="1:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="78" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="79">
-        <v>-112</v>
-      </c>
-      <c r="C7" s="79">
-        <v>-420.6</v>
-      </c>
-      <c r="D7" s="79">
-        <v>196.5</v>
-      </c>
-      <c r="E7" s="79">
-        <v>-1.7</v>
-      </c>
-      <c r="F7" s="79">
-        <v>-6.3</v>
-      </c>
-      <c r="G7" s="79">
-        <v>2.9</v>
-      </c>
-      <c r="H7" s="79">
-        <v>2.9499999999999998E-2</v>
-      </c>
-      <c r="I7" s="76"/>
-      <c r="J7" s="76"/>
-      <c r="K7" s="76"/>
-    </row>
-    <row r="8" spans="1:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="78" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="79">
-        <v>-364.2</v>
-      </c>
-      <c r="C8" s="79">
-        <v>-672.7</v>
-      </c>
-      <c r="D8" s="79">
-        <v>-55.7</v>
-      </c>
-      <c r="E8" s="79">
-        <v>-5.4</v>
-      </c>
-      <c r="F8" s="79">
-        <v>-10</v>
-      </c>
-      <c r="G8" s="79">
-        <v>-0.8</v>
-      </c>
-      <c r="H8" s="79">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="I8" s="76"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="76"/>
-    </row>
-    <row r="11" spans="1:11" ht="170" x14ac:dyDescent="0.2">
-      <c r="A11" s="71" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="71"/>
+      <c r="A12" s="56"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="71"/>
+      <c r="A13" s="56"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="71"/>
+      <c r="A14" s="56"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="71"/>
+      <c r="A15" s="56"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="72"/>
+      <c r="B21" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/figs/tables_mowtivation.xlsx
+++ b/figs/tables_mowtivation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/Mowtivation/figs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E70779E6-39D5-D846-8973-E1685B78875C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE7EF37-AE71-204D-9D30-47E8D96A6D25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15240" yWindow="-26100" windowWidth="34160" windowHeight="21100" xr2:uid="{CFC9959B-CCF0-1E42-95AC-6A81378BC995}"/>
+    <workbookView xWindow="15040" yWindow="-28300" windowWidth="30020" windowHeight="24140" xr2:uid="{CFC9959B-CCF0-1E42-95AC-6A81378BC995}"/>
   </bookViews>
   <sheets>
     <sheet name="Global response summary" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="70">
   <si>
     <t>P-value</t>
   </si>
@@ -81,21 +81,12 @@
     <t>&lt;0.01</t>
   </si>
   <si>
-    <t>abc</t>
-  </si>
-  <si>
     <t>c</t>
   </si>
   <si>
     <t>bc</t>
   </si>
   <si>
-    <t>Weed biomass (kg/ha) model predictied means</t>
-  </si>
-  <si>
-    <t>Weed biomass (kg/ha), Raw means</t>
-  </si>
-  <si>
     <t>Interrow weed biomass (kg/ha) model predictied means</t>
   </si>
   <si>
@@ -105,12 +96,6 @@
     <t>Mod</t>
   </si>
   <si>
-    <t>Intrarow weed biomass (kg/ha) model predictied means</t>
-  </si>
-  <si>
-    <t>Intrarow weed biomass (kg/ha), Raw means</t>
-  </si>
-  <si>
     <t>na</t>
   </si>
   <si>
@@ -238,6 +223,30 @@
   </si>
   <si>
     <t>d</t>
+  </si>
+  <si>
+    <t>0.054*</t>
+  </si>
+  <si>
+    <t>Weed biomass (kg ha⁻¹), Raw means</t>
+  </si>
+  <si>
+    <t>Weed biomass (kg ha⁻¹)) model predictied means</t>
+  </si>
+  <si>
+    <t>LRT p = 0.019</t>
+  </si>
+  <si>
+    <t>inf</t>
+  </si>
+  <si>
+    <t>In-row weed biomass (kg/ha), Raw means</t>
+  </si>
+  <si>
+    <t>In-row weed biomass (kg ha⁻¹), model-predicted means (interactive model)</t>
+  </si>
+  <si>
+    <t>LRT (additive vs interaction)	&lt;0.01</t>
   </si>
 </sst>
 </file>
@@ -248,7 +257,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -318,6 +327,18 @@
     <font>
       <sz val="18"/>
       <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -500,7 +521,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -610,9 +631,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -638,6 +656,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -668,15 +696,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1015,8 +1046,8 @@
   <dimension ref="A1:Y55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="W27" sqref="W27"/>
+      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="S16" sqref="S16:S17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1039,93 +1070,93 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="73" t="s">
-        <v>53</v>
-      </c>
-      <c r="L1" s="55"/>
+      <c r="A1" s="62" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="54"/>
     </row>
     <row r="2" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="66" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="71" t="s">
-        <v>31</v>
-      </c>
-      <c r="O2" s="72"/>
-      <c r="P2" s="72"/>
-      <c r="Q2" s="72"/>
-      <c r="R2" s="72"/>
-      <c r="S2" s="72"/>
-      <c r="T2" s="72"/>
-      <c r="U2" s="72"/>
-      <c r="V2" s="72"/>
-      <c r="W2" s="72"/>
+      <c r="B2" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="70"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="74" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
     </row>
     <row r="3" spans="1:25" ht="44" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="67" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="68"/>
+      <c r="D3" s="67" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="68"/>
+      <c r="F3" s="72" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="73"/>
+      <c r="H3" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="64" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="69" t="s">
-        <v>19</v>
-      </c>
-      <c r="G3" s="70"/>
-      <c r="H3" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="70"/>
-      <c r="J3" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="70"/>
-      <c r="L3" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="70"/>
-      <c r="N3" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="O3" s="70"/>
-      <c r="P3" s="69" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q3" s="70"/>
-      <c r="R3" s="64" t="s">
-        <v>54</v>
-      </c>
-      <c r="S3" s="65"/>
-      <c r="T3" s="75" t="s">
-        <v>40</v>
-      </c>
-      <c r="U3" s="76"/>
-      <c r="V3" s="69" t="s">
-        <v>58</v>
-      </c>
-      <c r="W3" s="70"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="72" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="73"/>
+      <c r="L3" s="72" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" s="73"/>
+      <c r="N3" s="72" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="73"/>
+      <c r="P3" s="72" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="S3" s="68"/>
+      <c r="T3" s="63" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" s="64"/>
+      <c r="V3" s="72" t="s">
+        <v>53</v>
+      </c>
+      <c r="W3" s="73"/>
     </row>
     <row r="4" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="4"/>
@@ -1162,19 +1193,19 @@
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="7" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="7" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="I5" s="8"/>
       <c r="J5" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="K5" s="8"/>
       <c r="L5" s="7" t="s">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="M5" s="8"/>
       <c r="N5" s="7" t="s">
@@ -1203,19 +1234,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G6" s="11"/>
       <c r="H6" s="7" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="7" t="s">
@@ -1227,7 +1258,7 @@
       </c>
       <c r="M6" s="11"/>
       <c r="N6" s="7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="O6" s="34"/>
       <c r="P6" s="7" t="s">
@@ -1251,12 +1282,12 @@
       <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7" t="s">
-        <v>13</v>
+      <c r="B7" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="C7" s="11"/>
-      <c r="D7" s="7" t="s">
-        <v>13</v>
+      <c r="D7" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="7" t="s">
@@ -1267,58 +1298,64 @@
         <v>13</v>
       </c>
       <c r="I7" s="11"/>
-      <c r="J7" s="7" t="s">
-        <v>13</v>
+      <c r="J7" s="7">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="K7" s="11"/>
-      <c r="L7" s="7" t="s">
-        <v>13</v>
+      <c r="L7" s="7">
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="34">
         <v>0.317</v>
       </c>
       <c r="O7" s="34"/>
-      <c r="P7" s="9" t="s">
-        <v>56</v>
-      </c>
+      <c r="P7" s="9"/>
       <c r="Q7" s="11"/>
-      <c r="R7" s="9">
-        <v>0.15</v>
-      </c>
+      <c r="R7" s="9"/>
       <c r="S7" s="11"/>
-      <c r="T7" s="9" t="s">
-        <v>60</v>
-      </c>
+      <c r="T7" s="9"/>
       <c r="U7" s="34"/>
-      <c r="V7" s="9" t="s">
-        <v>57</v>
-      </c>
+      <c r="V7" s="9"/>
       <c r="W7" s="12"/>
     </row>
-    <row r="8" spans="1:25" ht="18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" ht="20" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
       <c r="C8" s="15"/>
       <c r="D8" s="14"/>
       <c r="E8" s="15"/>
-      <c r="F8" s="14"/>
+      <c r="F8" s="14" t="s">
+        <v>69</v>
+      </c>
       <c r="G8" s="15"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="14"/>
+      <c r="H8" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8" s="76"/>
+      <c r="J8" s="14" t="s">
+        <v>65</v>
+      </c>
       <c r="K8" s="15"/>
       <c r="L8" s="14"/>
       <c r="M8" s="15"/>
       <c r="N8" s="40"/>
       <c r="O8" s="40"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="15"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="15"/>
-      <c r="T8" s="51"/>
-      <c r="U8" s="40"/>
-      <c r="V8" s="14"/>
+      <c r="P8" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="79">
+        <v>0.15</v>
+      </c>
+      <c r="S8" s="78"/>
+      <c r="T8" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="U8" s="80"/>
+      <c r="V8" s="77" t="s">
+        <v>52</v>
+      </c>
       <c r="W8" s="15"/>
     </row>
     <row r="9" spans="1:25" ht="18" x14ac:dyDescent="0.2">
@@ -1343,7 +1380,7 @@
       <c r="Q9" s="5"/>
       <c r="R9" s="4"/>
       <c r="S9" s="5"/>
-      <c r="T9" s="52"/>
+      <c r="T9" s="51"/>
       <c r="U9" s="38"/>
       <c r="V9" s="4"/>
       <c r="W9" s="5"/>
@@ -1353,12 +1390,12 @@
         <v>12</v>
       </c>
       <c r="B10" s="18">
-        <v>549</v>
+        <v>554</v>
       </c>
       <c r="C10" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="18">
+      <c r="D10" s="20">
         <v>636</v>
       </c>
       <c r="E10" s="17" t="s">
@@ -1424,12 +1461,12 @@
         <v>9</v>
       </c>
       <c r="B11" s="18">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="C11" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D11" s="20">
         <v>76</v>
       </c>
       <c r="E11" s="17" t="s">
@@ -1451,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="K11" s="17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L11" s="18">
         <v>16</v>
       </c>
       <c r="M11" s="17" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N11" s="41">
         <v>585958</v>
@@ -1495,12 +1532,12 @@
         <v>10</v>
       </c>
       <c r="B12" s="18">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="18">
+      <c r="D12" s="20">
         <v>163</v>
       </c>
       <c r="E12" s="17" t="s">
@@ -1519,7 +1556,7 @@
         <v>4</v>
       </c>
       <c r="J12" s="18">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="K12" s="17" t="s">
         <v>4</v>
@@ -1613,24 +1650,24 @@
       <c r="V14" s="27"/>
       <c r="W14" s="26"/>
       <c r="Y14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B15" s="18">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D15" s="18">
         <v>264</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="F15" s="18">
         <v>192</v>
@@ -1648,13 +1685,13 @@
         <v>0</v>
       </c>
       <c r="K15" s="28" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="L15" s="18">
         <v>17</v>
       </c>
       <c r="M15" s="28" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N15" s="44">
         <v>540792</v>
@@ -1669,38 +1706,38 @@
         <v>4</v>
       </c>
       <c r="R15" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S15" s="28"/>
       <c r="T15" s="20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="U15" s="28"/>
       <c r="V15" s="18">
         <v>17.440000000000001</v>
       </c>
       <c r="W15" s="28" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="Y15" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B16" s="18">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C16" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="18">
         <v>123</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" s="18">
         <v>40</v>
@@ -1715,7 +1752,7 @@
         <v>4</v>
       </c>
       <c r="J16" s="18">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="K16" s="28" t="s">
         <v>4</v>
@@ -1739,18 +1776,18 @@
         <v>4</v>
       </c>
       <c r="R16" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S16" s="28"/>
       <c r="T16" s="20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="U16" s="28"/>
       <c r="V16" s="18">
         <v>17.649999999999999</v>
       </c>
       <c r="W16" s="28" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="18" x14ac:dyDescent="0.2">
@@ -1758,7 +1795,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="18">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="C17" s="28" t="s">
         <v>15</v>
@@ -1782,7 +1819,7 @@
         <v>4</v>
       </c>
       <c r="J17" s="18">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K17" s="28" t="s">
         <v>4</v>
@@ -1806,26 +1843,26 @@
         <v>4</v>
       </c>
       <c r="R17" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S17" s="28"/>
       <c r="T17" s="20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="U17" s="17"/>
       <c r="V17" s="18">
         <v>17.95</v>
       </c>
       <c r="W17" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B18" s="18">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="C18" s="28" t="s">
         <v>3</v>
@@ -1849,7 +1886,7 @@
         <v>3</v>
       </c>
       <c r="J18" s="18">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K18" s="28" t="s">
         <v>3</v>
@@ -1873,11 +1910,11 @@
         <v>3</v>
       </c>
       <c r="R18" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S18" s="28"/>
       <c r="T18" s="20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="U18" s="17"/>
       <c r="V18" s="18">
@@ -1889,34 +1926,34 @@
     </row>
     <row r="19" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B19" s="18">
-        <v>86</v>
+        <v>262</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="D19" s="18">
         <v>320</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="F19" s="18">
         <v>3</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H19" s="18">
         <v>12</v>
       </c>
       <c r="I19" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J19" s="18">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="K19" s="28" t="s">
         <v>3</v>
@@ -1940,11 +1977,11 @@
         <v>3</v>
       </c>
       <c r="R19" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S19" s="28"/>
       <c r="T19" s="20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="U19" s="17"/>
       <c r="V19" s="18">
@@ -1974,8 +2011,8 @@
       <c r="Q20" s="23"/>
       <c r="R20" s="22"/>
       <c r="S20" s="23"/>
-      <c r="T20" s="53" t="s">
-        <v>39</v>
+      <c r="T20" s="52" t="s">
+        <v>34</v>
       </c>
       <c r="U20" s="42"/>
       <c r="V20" s="24"/>
@@ -2003,7 +2040,7 @@
       <c r="Q21" s="26"/>
       <c r="R21" s="25"/>
       <c r="S21" s="26"/>
-      <c r="T21" s="54"/>
+      <c r="T21" s="53"/>
       <c r="U21" s="43"/>
       <c r="V21" s="27"/>
       <c r="W21" s="26"/>
@@ -2037,20 +2074,16 @@
     </row>
     <row r="23" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" s="18">
-        <v>405</v>
-      </c>
-      <c r="C23" s="28" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="18">
-        <v>420</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>14</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="28"/>
+      <c r="D23" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="28"/>
       <c r="F23" s="18">
         <v>357</v>
       </c>
@@ -2067,52 +2100,48 @@
         <v>23</v>
       </c>
       <c r="K23" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L23" s="18">
         <v>24</v>
       </c>
       <c r="M23" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N23" s="44">
         <v>506890</v>
       </c>
       <c r="O23" s="44"/>
       <c r="P23" s="19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q23" s="16"/>
       <c r="R23" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S23" s="28"/>
       <c r="T23" s="48" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="U23" s="44"/>
       <c r="V23" s="21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="W23" s="46"/>
       <c r="X23" s="20"/>
     </row>
     <row r="24" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="18">
-        <v>255</v>
-      </c>
-      <c r="C24" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D24" s="18">
-        <v>258</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>15</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="28"/>
+      <c r="D24" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="28"/>
       <c r="F24" s="18">
         <v>132</v>
       </c>
@@ -2126,7 +2155,7 @@
         <v>3</v>
       </c>
       <c r="J24" s="18">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K24" s="28" t="s">
         <v>4</v>
@@ -2142,19 +2171,19 @@
       </c>
       <c r="O24" s="44"/>
       <c r="P24" s="19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q24" s="16"/>
       <c r="R24" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S24" s="28"/>
       <c r="T24" s="48" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="U24" s="44"/>
       <c r="V24" s="21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="W24" s="46"/>
       <c r="X24" s="20"/>
@@ -2163,18 +2192,14 @@
       <c r="A25" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B25" s="18">
-        <v>472</v>
-      </c>
-      <c r="C25" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="18">
-        <v>463</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>16</v>
-      </c>
+      <c r="B25" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="28"/>
       <c r="F25" s="18">
         <v>286</v>
       </c>
@@ -2188,7 +2213,7 @@
         <v>3</v>
       </c>
       <c r="J25" s="18">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K25" s="28" t="s">
         <v>4</v>
@@ -2204,39 +2229,35 @@
       </c>
       <c r="O25" s="44"/>
       <c r="P25" s="19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q25" s="16"/>
       <c r="R25" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S25" s="28"/>
       <c r="T25" s="48" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="U25" s="44"/>
       <c r="V25" s="21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="W25" s="46"/>
       <c r="X25" s="20"/>
     </row>
     <row r="26" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26" s="18">
-        <v>1200</v>
-      </c>
-      <c r="C26" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D26" s="18">
-        <v>1184</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>3</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="28"/>
+      <c r="D26" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="28"/>
       <c r="F26" s="18">
         <v>503</v>
       </c>
@@ -2250,7 +2271,7 @@
         <v>3</v>
       </c>
       <c r="J26" s="18">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="K26" s="28" t="s">
         <v>3</v>
@@ -2266,39 +2287,35 @@
       </c>
       <c r="O26" s="44"/>
       <c r="P26" s="19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q26" s="16"/>
       <c r="R26" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S26" s="28"/>
       <c r="T26" s="48" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="U26" s="44"/>
       <c r="V26" s="21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="W26" s="46"/>
       <c r="X26" s="20"/>
     </row>
     <row r="27" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B27" s="18">
-        <v>855</v>
-      </c>
-      <c r="C27" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D27" s="18">
-        <v>854</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>6</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="28"/>
       <c r="F27" s="18">
         <v>3</v>
       </c>
@@ -2312,7 +2329,7 @@
         <v>4</v>
       </c>
       <c r="J27" s="18">
-        <v>829</v>
+        <v>835</v>
       </c>
       <c r="K27" s="28" t="s">
         <v>3</v>
@@ -2328,19 +2345,19 @@
       </c>
       <c r="O27" s="44"/>
       <c r="P27" s="19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q27" s="16"/>
       <c r="R27" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S27" s="28"/>
       <c r="T27" s="48" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="U27" s="44"/>
       <c r="V27" s="21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="W27" s="46"/>
       <c r="X27" s="20"/>
@@ -2375,20 +2392,16 @@
     </row>
     <row r="29" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="18">
-        <v>94</v>
-      </c>
-      <c r="C29" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="18">
-        <v>125</v>
-      </c>
-      <c r="E29" s="28" t="s">
-        <v>6</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="28"/>
+      <c r="D29" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="28"/>
       <c r="F29" s="18">
         <v>105</v>
       </c>
@@ -2405,31 +2418,31 @@
         <v>0</v>
       </c>
       <c r="K29" s="28" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
       <c r="L29" s="18">
         <v>0</v>
       </c>
       <c r="M29" s="28" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N29" s="44">
         <v>561024</v>
       </c>
       <c r="O29" s="44"/>
       <c r="P29" s="20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q29" s="16"/>
       <c r="R29" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S29" s="28"/>
       <c r="T29" s="48" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="V29" s="47" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="W29" s="49"/>
       <c r="X29" s="34"/>
@@ -2437,20 +2450,16 @@
     </row>
     <row r="30" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="18">
-        <v>24</v>
-      </c>
-      <c r="C30" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="D30" s="18">
-        <v>24</v>
-      </c>
-      <c r="E30" s="28" t="s">
-        <v>16</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="28"/>
+      <c r="D30" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="28"/>
       <c r="F30" s="18">
         <v>24</v>
       </c>
@@ -2480,18 +2489,18 @@
       </c>
       <c r="O30" s="44"/>
       <c r="P30" s="20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q30" s="16"/>
       <c r="R30" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S30" s="28"/>
       <c r="T30" s="48" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="V30" s="47" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="W30" s="49"/>
       <c r="X30" s="34"/>
@@ -2500,18 +2509,14 @@
       <c r="A31" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="18">
-        <v>2</v>
-      </c>
-      <c r="C31" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="18">
-        <v>2</v>
-      </c>
-      <c r="E31" s="28" t="s">
-        <v>15</v>
-      </c>
+      <c r="B31" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="28"/>
       <c r="F31" s="18">
         <v>2</v>
       </c>
@@ -2541,18 +2546,18 @@
       </c>
       <c r="O31" s="44"/>
       <c r="P31" s="20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q31" s="16"/>
       <c r="R31" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S31" s="28"/>
       <c r="T31" s="48" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="V31" s="47" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="W31" s="49"/>
       <c r="X31" s="34"/>
@@ -2560,20 +2565,16 @@
     </row>
     <row r="32" spans="1:25" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32" s="18">
-        <v>142</v>
-      </c>
-      <c r="C32" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D32" s="18">
-        <v>133</v>
-      </c>
-      <c r="E32" s="28" t="s">
-        <v>3</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="28"/>
+      <c r="D32" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="28"/>
       <c r="F32" s="18">
         <v>120</v>
       </c>
@@ -2603,38 +2604,34 @@
       </c>
       <c r="O32" s="44"/>
       <c r="P32" s="20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q32" s="16"/>
       <c r="R32" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S32" s="28"/>
       <c r="T32" s="48" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="V32" s="47" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="W32" s="49"/>
       <c r="X32" s="34"/>
     </row>
     <row r="33" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="18">
-        <v>71</v>
-      </c>
-      <c r="C33" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" s="18">
-        <v>94</v>
-      </c>
-      <c r="E33" s="28" t="s">
-        <v>6</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C33" s="28"/>
+      <c r="D33" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E33" s="28"/>
       <c r="F33" s="18">
         <v>25</v>
       </c>
@@ -2664,18 +2661,18 @@
       </c>
       <c r="O33" s="44"/>
       <c r="P33" s="20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q33" s="16"/>
       <c r="R33" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S33" s="28"/>
       <c r="T33" s="48" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="V33" s="47" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="W33" s="49"/>
       <c r="X33" s="34"/>
@@ -2710,20 +2707,16 @@
     </row>
     <row r="35" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="18">
-        <v>172</v>
-      </c>
-      <c r="C35" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D35" s="18">
-        <v>247</v>
-      </c>
-      <c r="E35" s="28" t="s">
-        <v>3</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="28"/>
+      <c r="D35" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E35" s="28"/>
       <c r="F35" s="18">
         <v>187</v>
       </c>
@@ -2737,7 +2730,7 @@
         <v>3</v>
       </c>
       <c r="J35" s="18">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="K35" s="28" t="s">
         <v>3</v>
@@ -2753,53 +2746,49 @@
       </c>
       <c r="O35" s="44"/>
       <c r="P35" s="20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q35" s="16"/>
       <c r="R35" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S35" s="28"/>
       <c r="T35" s="48" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="U35" s="44"/>
       <c r="V35" s="21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="W35" s="49"/>
       <c r="X35" s="48"/>
     </row>
     <row r="36" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="18">
-        <v>63</v>
-      </c>
-      <c r="C36" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D36" s="18">
-        <v>88</v>
-      </c>
-      <c r="E36" s="28" t="s">
-        <v>6</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36" s="28"/>
+      <c r="D36" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="28"/>
       <c r="F36" s="18">
         <v>20</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H36" s="18">
         <v>23</v>
       </c>
       <c r="I36" s="28" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J36" s="18">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="K36" s="28" t="s">
         <v>3</v>
@@ -2815,19 +2804,19 @@
       </c>
       <c r="O36" s="44"/>
       <c r="P36" s="20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q36" s="16"/>
       <c r="R36" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S36" s="28"/>
       <c r="T36" s="48" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="U36" s="44"/>
       <c r="V36" s="21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="W36" s="46"/>
       <c r="X36" s="20"/>
@@ -2836,18 +2825,14 @@
       <c r="A37" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="18">
-        <v>216</v>
-      </c>
-      <c r="C37" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D37" s="18">
-        <v>272</v>
-      </c>
-      <c r="E37" s="28" t="s">
-        <v>3</v>
-      </c>
+      <c r="B37" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="28"/>
+      <c r="D37" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E37" s="28"/>
       <c r="F37" s="18">
         <v>186</v>
       </c>
@@ -2861,7 +2846,7 @@
         <v>3</v>
       </c>
       <c r="J37" s="18">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="K37" s="28" t="s">
         <v>3</v>
@@ -2877,53 +2862,49 @@
       </c>
       <c r="O37" s="44"/>
       <c r="P37" s="20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q37" s="16"/>
       <c r="R37" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S37" s="28"/>
       <c r="T37" s="48" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="U37" s="44"/>
       <c r="V37" s="21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="W37" s="46"/>
       <c r="X37" s="20"/>
     </row>
     <row r="38" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="18">
-        <v>214</v>
-      </c>
-      <c r="C38" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="D38" s="18">
-        <v>195</v>
-      </c>
-      <c r="E38" s="28" t="s">
-        <v>3</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="28"/>
+      <c r="D38" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E38" s="28"/>
       <c r="F38" s="18">
         <v>157</v>
       </c>
       <c r="G38" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H38" s="18">
         <v>246</v>
       </c>
       <c r="I38" s="28" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J38" s="18">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K38" s="28" t="s">
         <v>3</v>
@@ -2939,53 +2920,49 @@
       </c>
       <c r="O38" s="44"/>
       <c r="P38" s="20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q38" s="16"/>
       <c r="R38" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S38" s="28"/>
       <c r="T38" s="48" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="U38" s="44"/>
       <c r="V38" s="21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="W38" s="46"/>
       <c r="X38" s="20"/>
     </row>
     <row r="39" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B39" s="18">
-        <v>11</v>
-      </c>
-      <c r="C39" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="D39" s="18">
-        <v>12</v>
-      </c>
-      <c r="E39" s="28" t="s">
-        <v>4</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C39" s="28"/>
+      <c r="D39" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" s="28"/>
       <c r="F39" s="18">
         <v>0.42399999999999999</v>
       </c>
       <c r="G39" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H39" s="18">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="I39" s="28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J39" s="18">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K39" s="28" t="s">
         <v>3</v>
@@ -3001,19 +2978,19 @@
       </c>
       <c r="O39" s="44"/>
       <c r="P39" s="20" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="Q39" s="16"/>
       <c r="R39" s="18" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="S39" s="28"/>
       <c r="T39" s="48" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="U39" s="44"/>
       <c r="V39" s="21" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="W39" s="46"/>
       <c r="X39" s="20"/>
@@ -3044,58 +3021,58 @@
       <c r="W40" s="33"/>
     </row>
     <row r="41" spans="1:24" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="P41" s="63" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q41" s="63"/>
-      <c r="R41" s="63" t="s">
-        <v>62</v>
-      </c>
-      <c r="S41" s="63"/>
-      <c r="T41" s="63" t="s">
-        <v>61</v>
-      </c>
-      <c r="U41" s="63"/>
-      <c r="V41" s="74" t="s">
+      <c r="P41" s="66" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q41" s="66"/>
+      <c r="R41" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="S41" s="66"/>
+      <c r="T41" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="U41" s="66"/>
+      <c r="V41" s="65" t="s">
+        <v>54</v>
+      </c>
+      <c r="W41" s="65"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="T42" s="56"/>
+      <c r="U42" s="56"/>
+      <c r="V42" t="s">
         <v>59</v>
       </c>
-      <c r="W41" s="74"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="T42" s="57"/>
-      <c r="U42" s="57"/>
-      <c r="V42" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="T43" s="57"/>
-      <c r="U43" s="57"/>
+      <c r="T43" s="56"/>
+      <c r="U43" s="56"/>
     </row>
     <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>25</v>
-      </c>
-      <c r="T44" s="57"/>
-      <c r="U44" s="57"/>
+        <v>20</v>
+      </c>
+      <c r="T44" s="56"/>
+      <c r="U44" s="56"/>
     </row>
     <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>26</v>
-      </c>
-      <c r="T45" s="57"/>
-      <c r="U45" s="57"/>
+        <v>21</v>
+      </c>
+      <c r="T45" s="56"/>
+      <c r="U45" s="56"/>
     </row>
     <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>27</v>
-      </c>
-      <c r="T46" s="57"/>
-      <c r="U46" s="57"/>
+        <v>22</v>
+      </c>
+      <c r="T46" s="56"/>
+      <c r="U46" s="56"/>
     </row>
     <row r="47" spans="1:24" ht="18" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H47" s="20"/>
     </row>
@@ -3115,6 +3092,8 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="R41:S41"/>
+    <mergeCell ref="T3:U3"/>
     <mergeCell ref="V41:W41"/>
     <mergeCell ref="T41:U41"/>
     <mergeCell ref="D3:E3"/>
@@ -3130,8 +3109,6 @@
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="V3:W3"/>
     <mergeCell ref="P41:Q41"/>
-    <mergeCell ref="R41:S41"/>
-    <mergeCell ref="T3:U3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3158,184 +3135,184 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="57" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="59" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-    </row>
-    <row r="4" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="60" t="s">
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="58"/>
+    </row>
+    <row r="5" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="A5" s="60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="61">
+        <v>-209.9</v>
+      </c>
+      <c r="C5" s="61">
+        <v>-518.5</v>
+      </c>
+      <c r="D5" s="61">
+        <v>98.6</v>
+      </c>
+      <c r="E5" s="61">
+        <v>-3.1</v>
+      </c>
+      <c r="F5" s="61">
+        <v>-7.7</v>
+      </c>
+      <c r="G5" s="61">
+        <v>1.5</v>
+      </c>
+      <c r="H5" s="61">
+        <v>8.3400000000000002E-2</v>
+      </c>
+      <c r="I5" s="58"/>
+      <c r="J5" s="58"/>
+      <c r="K5" s="58"/>
+    </row>
+    <row r="6" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="A6" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="60" t="s">
+      <c r="B6" s="61">
+        <v>-85.9</v>
+      </c>
+      <c r="C6" s="61">
+        <v>-394.5</v>
+      </c>
+      <c r="D6" s="61">
+        <v>222.6</v>
+      </c>
+      <c r="E6" s="61">
+        <v>-1.3</v>
+      </c>
+      <c r="F6" s="61">
+        <v>-5.9</v>
+      </c>
+      <c r="G6" s="61">
+        <v>3.3</v>
+      </c>
+      <c r="H6" s="61">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="I6" s="58"/>
+      <c r="J6" s="58"/>
+      <c r="K6" s="58"/>
+    </row>
+    <row r="7" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="A7" s="60" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="61">
+        <v>-112</v>
+      </c>
+      <c r="C7" s="61">
+        <v>-420.6</v>
+      </c>
+      <c r="D7" s="61">
+        <v>196.5</v>
+      </c>
+      <c r="E7" s="61">
+        <v>-1.7</v>
+      </c>
+      <c r="F7" s="61">
+        <v>-6.3</v>
+      </c>
+      <c r="G7" s="61">
+        <v>2.9</v>
+      </c>
+      <c r="H7" s="61">
+        <v>2.9499999999999998E-2</v>
+      </c>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
+      <c r="K7" s="58"/>
+    </row>
+    <row r="8" spans="1:11" ht="19" x14ac:dyDescent="0.2">
+      <c r="A8" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="E4" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-    </row>
-    <row r="5" spans="1:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="A5" s="61" t="s">
+      <c r="B8" s="61">
+        <v>-364.2</v>
+      </c>
+      <c r="C8" s="61">
+        <v>-672.7</v>
+      </c>
+      <c r="D8" s="61">
+        <v>-55.7</v>
+      </c>
+      <c r="E8" s="61">
+        <v>-5.4</v>
+      </c>
+      <c r="F8" s="61">
+        <v>-10</v>
+      </c>
+      <c r="G8" s="61">
+        <v>-0.8</v>
+      </c>
+      <c r="H8" s="61">
+        <v>0.28699999999999998</v>
+      </c>
+      <c r="I8" s="58"/>
+      <c r="J8" s="58"/>
+      <c r="K8" s="58"/>
+    </row>
+    <row r="11" spans="1:11" ht="170" x14ac:dyDescent="0.2">
+      <c r="A11" s="55" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="62">
-        <v>-209.9</v>
-      </c>
-      <c r="C5" s="62">
-        <v>-518.5</v>
-      </c>
-      <c r="D5" s="62">
-        <v>98.6</v>
-      </c>
-      <c r="E5" s="62">
-        <v>-3.1</v>
-      </c>
-      <c r="F5" s="62">
-        <v>-7.7</v>
-      </c>
-      <c r="G5" s="62">
-        <v>1.5</v>
-      </c>
-      <c r="H5" s="62">
-        <v>8.3400000000000002E-2</v>
-      </c>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-    </row>
-    <row r="6" spans="1:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="A6" s="61" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="62">
-        <v>-85.9</v>
-      </c>
-      <c r="C6" s="62">
-        <v>-394.5</v>
-      </c>
-      <c r="D6" s="62">
-        <v>222.6</v>
-      </c>
-      <c r="E6" s="62">
-        <v>-1.3</v>
-      </c>
-      <c r="F6" s="62">
-        <v>-5.9</v>
-      </c>
-      <c r="G6" s="62">
-        <v>3.3</v>
-      </c>
-      <c r="H6" s="62">
-        <v>2.1700000000000001E-2</v>
-      </c>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-    </row>
-    <row r="7" spans="1:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="A7" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="62">
-        <v>-112</v>
-      </c>
-      <c r="C7" s="62">
-        <v>-420.6</v>
-      </c>
-      <c r="D7" s="62">
-        <v>196.5</v>
-      </c>
-      <c r="E7" s="62">
-        <v>-1.7</v>
-      </c>
-      <c r="F7" s="62">
-        <v>-6.3</v>
-      </c>
-      <c r="G7" s="62">
-        <v>2.9</v>
-      </c>
-      <c r="H7" s="62">
-        <v>2.9499999999999998E-2</v>
-      </c>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="59"/>
-    </row>
-    <row r="8" spans="1:11" ht="19" x14ac:dyDescent="0.2">
-      <c r="A8" s="61" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="62">
-        <v>-364.2</v>
-      </c>
-      <c r="C8" s="62">
-        <v>-672.7</v>
-      </c>
-      <c r="D8" s="62">
-        <v>-55.7</v>
-      </c>
-      <c r="E8" s="62">
-        <v>-5.4</v>
-      </c>
-      <c r="F8" s="62">
-        <v>-10</v>
-      </c>
-      <c r="G8" s="62">
-        <v>-0.8</v>
-      </c>
-      <c r="H8" s="62">
-        <v>0.28699999999999998</v>
-      </c>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
-      <c r="K8" s="59"/>
-    </row>
-    <row r="11" spans="1:11" ht="170" x14ac:dyDescent="0.2">
-      <c r="A11" s="56" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" s="56"/>
+      <c r="A12" s="55"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13" s="56"/>
+      <c r="A13" s="55"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14" s="56"/>
+      <c r="A14" s="55"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15" s="56"/>
+      <c r="A15" s="55"/>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B21" s="57"/>
+      <c r="B21" s="56"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/figs/tables_mowtivation.xlsx
+++ b/figs/tables_mowtivation.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/Mowtivation/figs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D2C9C85-360D-0C4B-9D08-CAF1C7CAE170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B64320-2F5D-E542-A9E7-952439C60EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15040" yWindow="-28300" windowWidth="30020" windowHeight="24140" xr2:uid="{CFC9959B-CCF0-1E42-95AC-6A81378BC995}"/>
+    <workbookView xWindow="0" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{CFC9959B-CCF0-1E42-95AC-6A81378BC995}"/>
   </bookViews>
   <sheets>
     <sheet name="Global response summary" sheetId="1" r:id="rId1"/>
-    <sheet name="Yield equivalence table" sheetId="2" r:id="rId2"/>
+    <sheet name="Global regression summary" sheetId="3" r:id="rId2"/>
+    <sheet name="Yield equivalence table" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="126">
   <si>
     <t>&lt;0.001</t>
   </si>
@@ -217,6 +218,204 @@
   </si>
   <si>
     <t>Equivalence tests for soybean yield vs Tilled, cultivation (margin = ±468 kg ha⁻¹ ≈ ±7 bu ac⁻¹).</t>
+  </si>
+  <si>
+    <t>Yield (kg ha⁻¹)</t>
+  </si>
+  <si>
+    <t>Weed metric</t>
+  </si>
+  <si>
+    <t>Interrow weed biomass (kg ha⁻¹)</t>
+  </si>
+  <si>
+    <t>In-row weed biomass (kg ha⁻¹)</t>
+  </si>
+  <si>
+    <t>Total weed biomass(kg ha⁻¹)</t>
+  </si>
+  <si>
+    <t>Soybean response variable</t>
+  </si>
+  <si>
+    <t>Mixed model structure (fixed + random)</t>
+  </si>
+  <si>
+    <t>Biomass (kg ha⁻¹)</t>
+  </si>
+  <si>
+    <t>Population ((plants ha⁻¹)</t>
+  </si>
+  <si>
+    <t>100-seed weight (g)</t>
+  </si>
+  <si>
+    <t>Slope per 100 kg ha⁻¹ (95% CI)</t>
+  </si>
+  <si>
+    <t>p (slope)</t>
+  </si>
+  <si>
+    <t>Best functional form (lin vs hyperbola)</t>
+  </si>
+  <si>
+    <t>Strength &amp; direction</t>
+  </si>
+  <si>
+    <t>Moderate, negative</t>
+  </si>
+  <si>
+    <t>R² (selected model)</t>
+  </si>
+  <si>
+    <t>Hyperbolic (ΔAIC = 5)</t>
+  </si>
+  <si>
+    <t>No (p = 0.75)</t>
+  </si>
+  <si>
+    <t>Hyperbolic (ΔAIC = 12)</t>
+  </si>
+  <si>
+    <t>No (p = 0.08)</t>
+  </si>
+  <si>
+    <t>Hyperbolic (ΔAIC = 10)</t>
+  </si>
+  <si>
+    <t>Y ~ interrow_weed_biomass_kg_ha + site_year + (1 | site_year:block)</t>
+  </si>
+  <si>
+    <t>Y ~ inrow_weed_biomass_kg_ha * site_year + (1 | site_year:block)</t>
+  </si>
+  <si>
+    <t>Y ~ weed_biomass_kg_ha + site_year + (1 | site_year:block)</t>
+  </si>
+  <si>
+    <t>Site-year × weed metric interaction in slope? (LRT p)</t>
+  </si>
+  <si>
+    <t>O2 east: &lt;0.001; other site-years: n.s. (&gt;0.60)</t>
+  </si>
+  <si>
+    <t>−111 (−161, −62)</t>
+  </si>
+  <si>
+    <t>−70 (−108, −32)</t>
+  </si>
+  <si>
+    <t>−116 (−225, −9)</t>
+  </si>
+  <si>
+    <t>Weak, negative</t>
+  </si>
+  <si>
+    <t>Hyperbolic (ΔAIC = 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 36 (−68, 140)</t>
+  </si>
+  <si>
+    <t>Hyperbolic (ΔAIC = 6)</t>
+  </si>
+  <si>
+    <t>Hyperbolic (ΔAIC = 2)</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>No (p = 0.6)</t>
+  </si>
+  <si>
+    <t>−3523 (−10166, 3120)</t>
+  </si>
+  <si>
+    <t>Y ~ weed_biomass_kg_ha * site_year + (1 | site_year:block)</t>
+  </si>
+  <si>
+    <t>Y ~ inrow_weed_biomass_kg_ha + site_year + (1 | site_year:block)</t>
+  </si>
+  <si>
+    <t>Varies by site-year (see Table Sx); 2024 O2 east ≈ −49,600 (−93,500, −5,800) plants ha⁻¹ per 100 kg; 2023 field v ≈ +7,700 (2,000, 13,500).</t>
+  </si>
+  <si>
+    <t>O2 east: 0.027; 2023 field v: 0.010; O2 west: n.s. (0.54).</t>
+  </si>
+  <si>
+    <t>Varies by site-year (see Table Sx); strongest at 2024 O2 west ≈ −201 (−361, −41) kg bean per 100 kg weed; 2024 O2 east ≈ +172 (−112, 456); 2023 field v ≈ −8 (−101, 86).</t>
+  </si>
+  <si>
+    <t>O2 west: 0.015; O2 east: 0.23; 2023 field v: 0.87</t>
+  </si>
+  <si>
+    <t>Varies by site-year (see Table Sx); most negative at 2024 O2 east ≈ −581 (−971, −191) kg yield per 100 kg in-row weed; 2024 O2 west ≈ −74 (−386, 238); 2023 field v ≈ −5 (−56, 46).</t>
+  </si>
+  <si>
+    <t>Hyperbolic (ΔAIC = 14)</t>
+  </si>
+  <si>
+    <t>Varies by site-year (see Table Sx); 2024 O2 east ≈ −15,881 (−33,018, 1,257), 2024 O2 west ≈ −548 (−10,213, 9,118), 2023 field v ≈ 5,150 (−481, 10,782) plants ha⁻¹ per 100 kg weed biomass.</t>
+  </si>
+  <si>
+    <t>All n.s.: O2 east 0.07; O2 west 0.91; 2023 field v 0.07.</t>
+  </si>
+  <si>
+    <t>Hyperbolic (ΔAIC = 9)</t>
+  </si>
+  <si>
+    <t>No (p = 0.9)</t>
+  </si>
+  <si>
+    <t>−0.06 (−0.001, 0)</t>
+  </si>
+  <si>
+    <t>Linear (ΔAIC = 1)</t>
+  </si>
+  <si>
+    <t>0.05 (0, 0.1)</t>
+  </si>
+  <si>
+    <t>No (p = 0.3)</t>
+  </si>
+  <si>
+    <t>Moderate, site-specific negative (O2 east only)</t>
+  </si>
+  <si>
+    <t>Moderate-strong, negative</t>
+  </si>
+  <si>
+    <t>Moderate, site-specific negative (O2 west only)</t>
+  </si>
+  <si>
+    <t>Strong, opposing site-specific effects</t>
+  </si>
+  <si>
+    <t>No clear, consistent relationship</t>
+  </si>
+  <si>
+    <t>Weak, negative (n.s.)</t>
+  </si>
+  <si>
+    <t>Weak, positive (n.s.)</t>
+  </si>
+  <si>
+    <t>No relationship (n.s.)</t>
+  </si>
+  <si>
+    <t>Yes (p &lt; 0.01)</t>
+  </si>
+  <si>
+    <t>Yes (p &lt; 0.05)</t>
+  </si>
+  <si>
+    <t>Weak, non-significant negative trend</t>
+  </si>
+  <si>
+    <t>No clear relationship  (n.s.)</t>
+  </si>
+  <si>
+    <t>-0.001 (-0.1, 0.1)</t>
   </si>
 </sst>
 </file>
@@ -227,7 +426,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -312,6 +511,19 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -321,7 +533,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -487,11 +699,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -630,27 +862,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -680,20 +891,109 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1031,9 +1331,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{522EE051-3ED8-7344-9F49-AE7ECF2C02F1}">
   <dimension ref="A1:Y56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="75" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J11" sqref="J11:J13"/>
+      <selection pane="topRight" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1063,82 +1363,82 @@
     </row>
     <row r="2" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="69" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="85" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="70"/>
-      <c r="P2" s="70"/>
-      <c r="Q2" s="70"/>
-      <c r="R2" s="70"/>
-      <c r="S2" s="70"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="70"/>
-      <c r="V2" s="70"/>
-      <c r="W2" s="70"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="86"/>
+      <c r="Q2" s="86"/>
+      <c r="R2" s="86"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="86"/>
+      <c r="U2" s="86"/>
+      <c r="V2" s="86"/>
+      <c r="W2" s="86"/>
     </row>
     <row r="3" spans="1:25" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="82" t="s">
+      <c r="B3" s="77" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="83"/>
-      <c r="D3" s="82" t="s">
+      <c r="C3" s="78"/>
+      <c r="D3" s="77" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="83"/>
-      <c r="F3" s="84" t="s">
+      <c r="E3" s="78"/>
+      <c r="F3" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="85"/>
-      <c r="H3" s="84" t="s">
+      <c r="G3" s="84"/>
+      <c r="H3" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="85"/>
-      <c r="J3" s="84" t="s">
+      <c r="I3" s="84"/>
+      <c r="J3" s="83" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="85"/>
-      <c r="L3" s="84" t="s">
+      <c r="K3" s="84"/>
+      <c r="L3" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="85"/>
-      <c r="N3" s="84" t="s">
+      <c r="M3" s="84"/>
+      <c r="N3" s="83" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="85"/>
-      <c r="P3" s="82" t="s">
+      <c r="O3" s="84"/>
+      <c r="P3" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="Q3" s="83"/>
-      <c r="R3" s="82" t="s">
+      <c r="Q3" s="78"/>
+      <c r="R3" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="S3" s="83"/>
-      <c r="T3" s="82" t="s">
+      <c r="S3" s="78"/>
+      <c r="T3" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="U3" s="83"/>
-      <c r="V3" s="84" t="s">
+      <c r="U3" s="78"/>
+      <c r="V3" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="W3" s="85"/>
+      <c r="W3" s="84"/>
     </row>
     <row r="4" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="71" t="s">
         <v>53</v>
       </c>
       <c r="B4" s="9">
@@ -1165,21 +1465,21 @@
         <v>1.9E-2</v>
       </c>
       <c r="M4" s="63"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="72">
+      <c r="N4" s="69"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="65">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="Q4" s="81"/>
-      <c r="R4" s="74">
+      <c r="Q4" s="74"/>
+      <c r="R4" s="67">
         <v>0.15</v>
       </c>
       <c r="S4" s="63"/>
-      <c r="T4" s="74">
+      <c r="T4" s="67">
         <v>0.151</v>
       </c>
-      <c r="U4" s="77"/>
-      <c r="V4" s="79">
+      <c r="U4" s="70"/>
+      <c r="V4" s="72">
         <v>5.2999999999999999E-2</v>
       </c>
       <c r="W4" s="63"/>
@@ -1367,18 +1667,18 @@
       <c r="F9" s="14"/>
       <c r="G9" s="15"/>
       <c r="H9" s="14"/>
-      <c r="I9" s="71"/>
+      <c r="I9" s="64"/>
       <c r="J9" s="14"/>
       <c r="K9" s="15"/>
       <c r="L9" s="14"/>
       <c r="M9" s="15"/>
       <c r="N9" s="39"/>
       <c r="O9" s="39"/>
-      <c r="P9" s="80"/>
-      <c r="Q9" s="73"/>
-      <c r="S9" s="73"/>
-      <c r="U9" s="75"/>
-      <c r="V9" s="80"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="66"/>
+      <c r="S9" s="66"/>
+      <c r="U9" s="68"/>
+      <c r="V9" s="73"/>
       <c r="W9" s="15"/>
     </row>
     <row r="10" spans="1:25" ht="18" x14ac:dyDescent="0.2">
@@ -1507,7 +1807,7 @@
       <c r="I12" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="86">
+      <c r="J12" s="75">
         <v>0</v>
       </c>
       <c r="K12" s="17" t="s">
@@ -1704,7 +2004,7 @@
       <c r="I16" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="J16" s="86">
+      <c r="J16" s="75">
         <v>0</v>
       </c>
       <c r="K16" s="28" t="s">
@@ -2437,7 +2737,7 @@
       <c r="I30" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="J30" s="86">
+      <c r="J30" s="75">
         <v>0</v>
       </c>
       <c r="K30" s="28" t="s">
@@ -3044,16 +3344,16 @@
       <c r="W41" s="33"/>
     </row>
     <row r="42" spans="1:24" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="65" t="s">
+      <c r="B42" s="76" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="65"/>
-      <c r="R42" s="65"/>
-      <c r="S42" s="65"/>
-      <c r="T42" s="65"/>
-      <c r="U42" s="65"/>
-      <c r="V42" s="64"/>
-      <c r="W42" s="64"/>
+      <c r="C42" s="76"/>
+      <c r="R42" s="76"/>
+      <c r="S42" s="76"/>
+      <c r="T42" s="76"/>
+      <c r="U42" s="76"/>
+      <c r="V42" s="79"/>
+      <c r="W42" s="79"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="T43" s="55"/>
@@ -3106,11 +3406,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="R42:S42"/>
-    <mergeCell ref="T3:U3"/>
-    <mergeCell ref="V42:W42"/>
-    <mergeCell ref="T42:U42"/>
-    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="B42:C42"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="B3:C3"/>
@@ -3122,13 +3418,418 @@
     <mergeCell ref="P3:Q3"/>
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="V3:W3"/>
-    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="R42:S42"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="V42:W42"/>
+    <mergeCell ref="T42:U42"/>
+    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA921C6-9B25-204D-9709-8482DD58ADFC}">
+  <dimension ref="A2:J24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="95" t="s">
+        <v>65</v>
+      </c>
+      <c r="B2" s="95" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="95" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="95" t="s">
+        <v>84</v>
+      </c>
+      <c r="E2" s="95" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="95" t="s">
+        <v>71</v>
+      </c>
+      <c r="G2" s="95" t="s">
+        <v>72</v>
+      </c>
+      <c r="H2" s="95" t="s">
+        <v>75</v>
+      </c>
+      <c r="I2" s="95" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="89" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="89" t="s">
+        <v>86</v>
+      </c>
+      <c r="F3" s="89" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="89" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="89">
+        <v>0.45</v>
+      </c>
+      <c r="I3" s="55" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="91"/>
+      <c r="B4" s="89" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="89" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="90" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="89" t="s">
+        <v>78</v>
+      </c>
+      <c r="H4" s="89">
+        <v>0.4</v>
+      </c>
+      <c r="I4" s="87" t="s">
+        <v>113</v>
+      </c>
+      <c r="J4" s="88"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="92"/>
+      <c r="B5" s="93" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="93" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="93" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="96" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" s="93" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="93" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="93">
+        <v>0.6</v>
+      </c>
+      <c r="I5" s="93" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="97" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="98" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="98" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="99" t="s">
+        <v>88</v>
+      </c>
+      <c r="F6" s="98" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="98" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="98">
+        <v>0.2</v>
+      </c>
+      <c r="I6" s="98" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="88"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="91"/>
+      <c r="B7" s="89" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="100" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="100" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="89" t="s">
+        <v>92</v>
+      </c>
+      <c r="H7" s="89">
+        <v>0.3</v>
+      </c>
+      <c r="I7" s="89" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="85" x14ac:dyDescent="0.2">
+      <c r="A8" s="92"/>
+      <c r="B8" s="93" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="93" t="s">
+        <v>122</v>
+      </c>
+      <c r="E8" s="101" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="94" t="s">
+        <v>102</v>
+      </c>
+      <c r="G8" s="93" t="s">
+        <v>93</v>
+      </c>
+      <c r="H8" s="93">
+        <v>0.4</v>
+      </c>
+      <c r="I8" s="109" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="97" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="98" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="98" t="s">
+        <v>95</v>
+      </c>
+      <c r="E9" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="98">
+        <v>0.3</v>
+      </c>
+      <c r="G9" s="98" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="102">
+        <v>0.2</v>
+      </c>
+      <c r="I9" s="103" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="68" x14ac:dyDescent="0.2">
+      <c r="A10" s="91"/>
+      <c r="B10" s="89" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="89" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="89" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" s="90" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="90" t="s">
+        <v>100</v>
+      </c>
+      <c r="G10" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="104">
+        <v>0.3</v>
+      </c>
+      <c r="I10" s="87" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="102" x14ac:dyDescent="0.2">
+      <c r="A11" s="92"/>
+      <c r="B11" s="93" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="93" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="93" t="s">
+        <v>122</v>
+      </c>
+      <c r="E11" s="94" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" s="93" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" s="105">
+        <v>0.3</v>
+      </c>
+      <c r="I11" s="94" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="97" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="98" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="98" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="98" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="99" t="s">
+        <v>109</v>
+      </c>
+      <c r="F12" s="98">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G12" s="98" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="102">
+        <v>0.2</v>
+      </c>
+      <c r="I12" s="55" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="91"/>
+      <c r="B13" s="89" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="D13" s="89" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="90" t="s">
+        <v>111</v>
+      </c>
+      <c r="F13" s="89">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="89" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="104">
+        <v>0.1</v>
+      </c>
+      <c r="I13" s="55" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="106"/>
+      <c r="B14" s="107" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14" s="107" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="107" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="110" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="107">
+        <v>0.9</v>
+      </c>
+      <c r="G14" s="107" t="s">
+        <v>90</v>
+      </c>
+      <c r="H14" s="108">
+        <v>0.2</v>
+      </c>
+      <c r="I14" s="107" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G16" s="88"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="I21" s="88"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24" s="88"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="F7" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7809865-2306-8F4F-A527-62E779202E03}">
   <dimension ref="A1:K21"/>
   <sheetViews>

--- a/figs/tables_mowtivation.xlsx
+++ b/figs/tables_mowtivation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/Mowtivation/figs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B64320-2F5D-E542-A9E7-952439C60EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEEC99CA-FF67-7C4F-8756-BE34EE995C2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{CFC9959B-CCF0-1E42-95AC-6A81378BC995}"/>
+    <workbookView xWindow="11340" yWindow="-26760" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{CFC9959B-CCF0-1E42-95AC-6A81378BC995}"/>
   </bookViews>
   <sheets>
     <sheet name="Global response summary" sheetId="1" r:id="rId1"/>
@@ -723,7 +723,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -894,47 +894,7 @@
     <xf numFmtId="165" fontId="6" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -962,38 +922,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1333,7 +1314,7 @@
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E44" sqref="E44"/>
+      <selection pane="topRight" activeCell="T3" sqref="T3:U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1363,79 +1344,79 @@
     </row>
     <row r="2" spans="1:25" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="85" t="s">
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="95"/>
+      <c r="I2" s="95"/>
+      <c r="J2" s="95"/>
+      <c r="K2" s="95"/>
+      <c r="L2" s="95"/>
+      <c r="M2" s="96"/>
+      <c r="N2" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="86"/>
-      <c r="P2" s="86"/>
-      <c r="Q2" s="86"/>
-      <c r="R2" s="86"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="86"/>
-      <c r="U2" s="86"/>
-      <c r="V2" s="86"/>
-      <c r="W2" s="86"/>
+      <c r="O2" s="102"/>
+      <c r="P2" s="102"/>
+      <c r="Q2" s="102"/>
+      <c r="R2" s="102"/>
+      <c r="S2" s="102"/>
+      <c r="T2" s="102"/>
+      <c r="U2" s="102"/>
+      <c r="V2" s="102"/>
+      <c r="W2" s="102"/>
     </row>
     <row r="3" spans="1:25" ht="55" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
-      <c r="B3" s="77" t="s">
+      <c r="B3" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="78"/>
-      <c r="D3" s="77" t="s">
+      <c r="C3" s="100"/>
+      <c r="D3" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="78"/>
-      <c r="F3" s="83" t="s">
+      <c r="E3" s="100"/>
+      <c r="F3" s="97" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="84"/>
-      <c r="H3" s="83" t="s">
+      <c r="G3" s="98"/>
+      <c r="H3" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="84"/>
-      <c r="J3" s="83" t="s">
+      <c r="I3" s="98"/>
+      <c r="J3" s="97" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="84"/>
-      <c r="L3" s="83" t="s">
+      <c r="K3" s="98"/>
+      <c r="L3" s="97" t="s">
         <v>55</v>
       </c>
-      <c r="M3" s="84"/>
-      <c r="N3" s="83" t="s">
+      <c r="M3" s="98"/>
+      <c r="N3" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="84"/>
-      <c r="P3" s="77" t="s">
+      <c r="O3" s="98"/>
+      <c r="P3" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="77" t="s">
+      <c r="Q3" s="100"/>
+      <c r="R3" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="S3" s="78"/>
-      <c r="T3" s="77" t="s">
+      <c r="S3" s="100"/>
+      <c r="T3" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="U3" s="78"/>
-      <c r="V3" s="83" t="s">
+      <c r="U3" s="100"/>
+      <c r="V3" s="97" t="s">
         <v>45</v>
       </c>
-      <c r="W3" s="84"/>
+      <c r="W3" s="98"/>
     </row>
     <row r="4" spans="1:25" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="71" t="s">
@@ -3344,16 +3325,16 @@
       <c r="W41" s="33"/>
     </row>
     <row r="42" spans="1:24" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="76" t="s">
+      <c r="B42" s="93" t="s">
         <v>57</v>
       </c>
-      <c r="C42" s="76"/>
-      <c r="R42" s="76"/>
-      <c r="S42" s="76"/>
-      <c r="T42" s="76"/>
-      <c r="U42" s="76"/>
-      <c r="V42" s="79"/>
-      <c r="W42" s="79"/>
+      <c r="C42" s="93"/>
+      <c r="R42" s="93"/>
+      <c r="S42" s="93"/>
+      <c r="T42" s="93"/>
+      <c r="U42" s="93"/>
+      <c r="V42" s="103"/>
+      <c r="W42" s="103"/>
     </row>
     <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="T43" s="55"/>
@@ -3406,6 +3387,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D3:E3"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N3:O3"/>
@@ -3422,7 +3404,6 @@
     <mergeCell ref="T3:U3"/>
     <mergeCell ref="V42:W42"/>
     <mergeCell ref="T42:U42"/>
-    <mergeCell ref="D3:E3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3430,9 +3411,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDA921C6-9B25-204D-9709-8482DD58ADFC}">
-  <dimension ref="A2:J24"/>
+  <dimension ref="A2:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -3449,377 +3430,366 @@
     <col min="9" max="9" width="26.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
+    <row r="2" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="81" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="95" t="s">
+      <c r="D2" s="81" t="s">
         <v>84</v>
       </c>
-      <c r="E2" s="95" t="s">
+      <c r="E2" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="F2" s="95" t="s">
+      <c r="F2" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="G2" s="95" t="s">
+      <c r="G2" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="95" t="s">
+      <c r="H2" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="95" t="s">
+      <c r="I2" s="81" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="91" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="89" t="s">
+      <c r="B3" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="89" t="s">
+      <c r="C3" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="89" t="s">
+      <c r="D3" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="89" t="s">
+      <c r="E3" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="89" t="s">
+      <c r="F3" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="89" t="s">
+      <c r="G3" s="55" t="s">
         <v>76</v>
       </c>
-      <c r="H3" s="89">
+      <c r="H3" s="55">
         <v>0.45</v>
       </c>
       <c r="I3" s="55" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="85" x14ac:dyDescent="0.2">
-      <c r="A4" s="91"/>
-      <c r="B4" s="89" t="s">
+    <row r="4" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A4" s="77"/>
+      <c r="B4" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C4" s="89" t="s">
+      <c r="C4" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="D4" s="89" t="s">
+      <c r="D4" s="55" t="s">
         <v>121</v>
       </c>
-      <c r="E4" s="90" t="s">
+      <c r="E4" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="90" t="s">
+      <c r="F4" s="76" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="89" t="s">
+      <c r="G4" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="H4" s="89">
+      <c r="H4" s="55">
         <v>0.4</v>
       </c>
-      <c r="I4" s="87" t="s">
+      <c r="I4" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="J4" s="88"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="92"/>
-      <c r="B5" s="93" t="s">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="78"/>
+      <c r="B5" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="C5" s="93" t="s">
+      <c r="C5" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="D5" s="93" t="s">
+      <c r="D5" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="96" t="s">
+      <c r="E5" s="82" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="93" t="s">
+      <c r="F5" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="79" t="s">
         <v>80</v>
       </c>
-      <c r="H5" s="93">
+      <c r="H5" s="79">
         <v>0.6</v>
       </c>
-      <c r="I5" s="93" t="s">
+      <c r="I5" s="79" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="97" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="83" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="98" t="s">
+      <c r="B6" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="98" t="s">
+      <c r="C6" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="98" t="s">
+      <c r="D6" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="99" t="s">
+      <c r="E6" s="85" t="s">
         <v>88</v>
       </c>
-      <c r="F6" s="98" t="s">
+      <c r="F6" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="98" t="s">
+      <c r="G6" s="84" t="s">
         <v>90</v>
       </c>
-      <c r="H6" s="98">
+      <c r="H6" s="84">
         <v>0.2</v>
       </c>
-      <c r="I6" s="98" t="s">
+      <c r="I6" s="84" t="s">
         <v>89</v>
       </c>
-      <c r="J6" s="88"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="91"/>
-      <c r="B7" s="89" t="s">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="77"/>
+      <c r="B7" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="89" t="s">
+      <c r="C7" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="89" t="s">
+      <c r="D7" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="100" t="s">
+      <c r="E7" s="86" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="100" t="s">
+      <c r="F7" s="86" t="s">
         <v>94</v>
       </c>
-      <c r="G7" s="89" t="s">
+      <c r="G7" s="55" t="s">
         <v>92</v>
       </c>
-      <c r="H7" s="89">
+      <c r="H7" s="55">
         <v>0.3</v>
       </c>
-      <c r="I7" s="89" t="s">
+      <c r="I7" s="55" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="85" x14ac:dyDescent="0.2">
-      <c r="A8" s="92"/>
-      <c r="B8" s="93" t="s">
+    <row r="8" spans="1:9" ht="85" x14ac:dyDescent="0.2">
+      <c r="A8" s="78"/>
+      <c r="B8" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="C8" s="93" t="s">
+      <c r="C8" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="93" t="s">
+      <c r="D8" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="101" t="s">
+      <c r="E8" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="94" t="s">
+      <c r="F8" s="80" t="s">
         <v>102</v>
       </c>
-      <c r="G8" s="93" t="s">
+      <c r="G8" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="H8" s="93">
+      <c r="H8" s="79">
         <v>0.4</v>
       </c>
-      <c r="I8" s="109" t="s">
+      <c r="I8" s="91" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9" s="97" t="s">
+    <row r="9" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="83" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="98" t="s">
+      <c r="C9" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="98" t="s">
+      <c r="D9" s="84" t="s">
         <v>95</v>
       </c>
-      <c r="E9" s="99" t="s">
+      <c r="E9" s="85" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="98">
+      <c r="F9" s="84">
         <v>0.3</v>
       </c>
-      <c r="G9" s="98" t="s">
+      <c r="G9" s="84" t="s">
         <v>93</v>
       </c>
-      <c r="H9" s="102">
+      <c r="H9" s="84">
         <v>0.2</v>
       </c>
-      <c r="I9" s="103" t="s">
+      <c r="I9" s="88" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="68" x14ac:dyDescent="0.2">
-      <c r="A10" s="91"/>
-      <c r="B10" s="89" t="s">
+    <row r="10" spans="1:9" ht="68" x14ac:dyDescent="0.2">
+      <c r="A10" s="77"/>
+      <c r="B10" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C10" s="89" t="s">
+      <c r="C10" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="89" t="s">
+      <c r="D10" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="90" t="s">
+      <c r="E10" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="90" t="s">
+      <c r="F10" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="G10" s="89" t="s">
+      <c r="G10" s="55" t="s">
         <v>104</v>
       </c>
-      <c r="H10" s="104">
+      <c r="H10" s="55">
         <v>0.3</v>
       </c>
-      <c r="I10" s="87" t="s">
+      <c r="I10" s="76" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="102" x14ac:dyDescent="0.2">
-      <c r="A11" s="92"/>
-      <c r="B11" s="93" t="s">
+    <row r="11" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+      <c r="A11" s="78"/>
+      <c r="B11" s="79" t="s">
         <v>64</v>
       </c>
-      <c r="C11" s="93" t="s">
+      <c r="C11" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="D11" s="93" t="s">
+      <c r="D11" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="94" t="s">
+      <c r="E11" s="80" t="s">
         <v>105</v>
       </c>
-      <c r="F11" s="94" t="s">
+      <c r="F11" s="80" t="s">
         <v>106</v>
       </c>
-      <c r="G11" s="93" t="s">
+      <c r="G11" s="79" t="s">
         <v>107</v>
       </c>
-      <c r="H11" s="105">
+      <c r="H11" s="79">
         <v>0.3</v>
       </c>
-      <c r="I11" s="94" t="s">
+      <c r="I11" s="80" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="97" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="98" t="s">
+      <c r="B12" s="84" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="98" t="s">
+      <c r="C12" s="84" t="s">
         <v>81</v>
       </c>
-      <c r="D12" s="98" t="s">
+      <c r="D12" s="84" t="s">
         <v>108</v>
       </c>
-      <c r="E12" s="99" t="s">
+      <c r="E12" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="F12" s="98">
+      <c r="F12" s="84">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G12" s="98" t="s">
+      <c r="G12" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="H12" s="102">
+      <c r="H12" s="84">
         <v>0.2</v>
       </c>
       <c r="I12" s="55" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13" s="91"/>
-      <c r="B13" s="89" t="s">
+    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="77"/>
+      <c r="B13" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="89" t="s">
+      <c r="C13" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="89" t="s">
+      <c r="D13" s="55" t="s">
         <v>95</v>
       </c>
-      <c r="E13" s="90" t="s">
+      <c r="E13" s="76" t="s">
         <v>111</v>
       </c>
-      <c r="F13" s="89">
+      <c r="F13" s="55">
         <v>0.1</v>
       </c>
-      <c r="G13" s="89" t="s">
+      <c r="G13" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="H13" s="104">
+      <c r="H13" s="55">
         <v>0.1</v>
       </c>
       <c r="I13" s="55" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="106"/>
-      <c r="B14" s="107" t="s">
+    <row r="14" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="89"/>
+      <c r="B14" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="107" t="s">
+      <c r="C14" s="90" t="s">
         <v>83</v>
       </c>
-      <c r="D14" s="107" t="s">
+      <c r="D14" s="90" t="s">
         <v>112</v>
       </c>
-      <c r="E14" s="110" t="s">
+      <c r="E14" s="92" t="s">
         <v>125</v>
       </c>
-      <c r="F14" s="107">
+      <c r="F14" s="90">
         <v>0.9</v>
       </c>
-      <c r="G14" s="107" t="s">
+      <c r="G14" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="108">
+      <c r="H14" s="90">
         <v>0.2</v>
       </c>
-      <c r="I14" s="107" t="s">
+      <c r="I14" s="90" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="G16" s="88"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="I21" s="88"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B24" s="88"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3833,8 +3803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7809865-2306-8F4F-A527-62E779202E03}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
